--- a/Modelo1/ronda_0.xlsx
+++ b/Modelo1/ronda_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Proyecto_Integrador\Modelo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED45242-84C0-4AAC-B5BA-18736F192A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F622D6F-6F91-4D25-A72D-1893E7B9CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1585,12 +1585,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1621,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1633,7 +1639,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1937,29 +1947,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2011,52 +2022,52 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>213</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>0.99166767298635428</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>0.93956043956043955</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>0.93478260869565222</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="7">
         <v>0.94505494505494503</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="7">
         <v>0.93989071038251382</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="7">
         <f>ABS(D2-J2)</f>
         <v>8.3323270136457239E-3</v>
       </c>
@@ -2086,7 +2097,7 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="3">
@@ -2104,7 +2115,7 @@
       <c r="N3" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" t="s">
         <v>123</v>
       </c>
       <c r="P3" s="3">
@@ -2137,7 +2148,7 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="3">
@@ -2155,7 +2166,7 @@
       <c r="N4" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
       <c r="P4" s="3">
@@ -2188,7 +2199,7 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="3">
@@ -2206,7 +2217,7 @@
       <c r="N5" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" t="s">
         <v>34</v>
       </c>
       <c r="P5" s="3">
@@ -2239,7 +2250,7 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="3">
@@ -2257,7 +2268,7 @@
       <c r="N6" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" t="s">
         <v>34</v>
       </c>
       <c r="P6" s="3">
@@ -2290,7 +2301,7 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="3">
@@ -2308,7 +2319,7 @@
       <c r="N7" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
       <c r="P7" s="3">
@@ -2341,7 +2352,7 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="3">
@@ -2359,7 +2370,7 @@
       <c r="N8" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="3">
@@ -2392,7 +2403,7 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="3">
@@ -2410,7 +2421,7 @@
       <c r="N9" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" t="s">
         <v>34</v>
       </c>
       <c r="P9" s="3">
@@ -2443,7 +2454,7 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="3">
@@ -2461,7 +2472,7 @@
       <c r="N10" s="3">
         <v>0.95187165775401072</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" t="s">
         <v>275</v>
       </c>
       <c r="P10" s="3">
@@ -2494,7 +2505,7 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="3">
@@ -2512,7 +2523,7 @@
       <c r="N11" s="3">
         <v>0.93989071038251382</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" t="s">
         <v>162</v>
       </c>
       <c r="P11" s="3">
@@ -2545,7 +2556,7 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="3">
@@ -2563,7 +2574,7 @@
       <c r="N12" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" t="s">
         <v>34</v>
       </c>
       <c r="P12" s="3">
@@ -2596,7 +2607,7 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="3">
@@ -2614,7 +2625,7 @@
       <c r="N13" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" t="s">
         <v>123</v>
       </c>
       <c r="P13" s="3">
@@ -2647,7 +2658,7 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="3">
@@ -2665,7 +2676,7 @@
       <c r="N14" s="3">
         <v>0.95135135135135129</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" t="s">
         <v>48</v>
       </c>
       <c r="P14" s="3">
@@ -2698,7 +2709,7 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="3">
@@ -2716,7 +2727,7 @@
       <c r="N15" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" s="3">
@@ -2726,61 +2737,61 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0.99980937078743481</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0.9907749077490775</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0.98540145985401462</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0.99630996309963105</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>16</v>
+        <v>0.99082568807339455</v>
+      </c>
+      <c r="I16" t="s">
+        <v>243</v>
       </c>
       <c r="J16" s="3">
         <v>0.98889023064847237</v>
       </c>
       <c r="K16" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.95604395604395609</v>
       </c>
       <c r="L16" s="3">
-        <v>0.92473118279569888</v>
+        <v>0.93684210526315792</v>
       </c>
       <c r="M16" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.97802197802197799</v>
       </c>
       <c r="N16" s="3">
-        <v>0.93478260869565222</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>17</v>
+        <v>0.956989247311828</v>
+      </c>
+      <c r="O16" t="s">
+        <v>244</v>
       </c>
       <c r="P16" s="3">
         <f>ABS(D16-J16)</f>
-        <v>1.1109769351527632E-2</v>
+        <v>1.0919140138962447E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -2800,26 +2811,26 @@
       <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="3">
         <v>0.98889023064847237</v>
       </c>
       <c r="K17" s="3">
-        <v>0.93956043956043955</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="L17" s="3">
-        <v>0.92553191489361697</v>
+        <v>0.92473118279569888</v>
       </c>
       <c r="M17" s="3">
-        <v>0.95604395604395609</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="N17" s="3">
-        <v>0.94054054054054059</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>123</v>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="O17" t="s">
+        <v>17</v>
       </c>
       <c r="P17" s="3">
         <f>ABS(D17-J17)</f>
@@ -2828,53 +2839,53 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.99980937078743481</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>0.9907749077490775</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0.98540145985401462</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>0.99630996309963105</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>0.99082568807339455</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="3">
         <v>0.98889023064847237</v>
       </c>
       <c r="K18" s="3">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.92553191489361697</v>
+      </c>
+      <c r="M18" s="3">
         <v>0.95604395604395609</v>
       </c>
-      <c r="L18" s="3">
-        <v>0.93684210526315792</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.97802197802197799</v>
-      </c>
       <c r="N18" s="3">
-        <v>0.956989247311828</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>244</v>
+        <v>0.94054054054054059</v>
+      </c>
+      <c r="O18" t="s">
+        <v>123</v>
       </c>
       <c r="P18" s="3">
         <f>ABS(D18-J18)</f>
-        <v>1.0919140138962447E-2</v>
+        <v>1.1109769351527632E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2902,7 +2913,7 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="3">
@@ -2920,7 +2931,7 @@
       <c r="N19" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" t="s">
         <v>64</v>
       </c>
       <c r="P19" s="3">
@@ -2953,7 +2964,7 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="3">
@@ -2971,7 +2982,7 @@
       <c r="N20" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" t="s">
         <v>41</v>
       </c>
       <c r="P20" s="3">
@@ -3004,7 +3015,7 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="3">
@@ -3022,7 +3033,7 @@
       <c r="N21" s="3">
         <v>0.95187165775401072</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" t="s">
         <v>275</v>
       </c>
       <c r="P21" s="3">
@@ -3055,7 +3066,7 @@
       <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="3">
@@ -3073,7 +3084,7 @@
       <c r="N22" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" t="s">
         <v>57</v>
       </c>
       <c r="P22" s="3">
@@ -3106,7 +3117,7 @@
       <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3">
@@ -3124,7 +3135,7 @@
       <c r="N23" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" t="s">
         <v>123</v>
       </c>
       <c r="P23" s="3">
@@ -3157,7 +3168,7 @@
       <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="3">
@@ -3175,7 +3186,7 @@
       <c r="N24" s="3">
         <v>0.93989071038251382</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" t="s">
         <v>162</v>
       </c>
       <c r="P24" s="3">
@@ -3208,7 +3219,7 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="3">
@@ -3226,7 +3237,7 @@
       <c r="N25" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" t="s">
         <v>123</v>
       </c>
       <c r="P25" s="3">
@@ -3259,7 +3270,7 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="3">
@@ -3277,7 +3288,7 @@
       <c r="N26" s="3">
         <v>0.93048128342245984</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="3">
@@ -3310,7 +3321,7 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="3">
@@ -3328,7 +3339,7 @@
       <c r="N27" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" t="s">
         <v>41</v>
       </c>
       <c r="P27" s="3">
@@ -3361,7 +3372,7 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="3">
@@ -3379,7 +3390,7 @@
       <c r="N28" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" t="s">
         <v>64</v>
       </c>
       <c r="P28" s="3">
@@ -3412,7 +3423,7 @@
       <c r="H29" s="3">
         <v>1</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="3">
@@ -3430,7 +3441,7 @@
       <c r="N29" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" t="s">
         <v>46</v>
       </c>
       <c r="P29" s="3">
@@ -3463,7 +3474,7 @@
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="3">
@@ -3481,7 +3492,7 @@
       <c r="N30" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" t="s">
         <v>57</v>
       </c>
       <c r="P30" s="3">
@@ -3514,7 +3525,7 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="3">
@@ -3532,7 +3543,7 @@
       <c r="N31" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" s="3">
@@ -3565,7 +3576,7 @@
       <c r="H32" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" t="s">
         <v>16</v>
       </c>
       <c r="J32" s="3">
@@ -3583,7 +3594,7 @@
       <c r="N32" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" t="s">
         <v>64</v>
       </c>
       <c r="P32" s="3">
@@ -3616,7 +3627,7 @@
       <c r="H33" s="3">
         <v>1</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="3">
@@ -3634,7 +3645,7 @@
       <c r="N33" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" t="s">
         <v>64</v>
       </c>
       <c r="P33" s="3">
@@ -3667,7 +3678,7 @@
       <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="3">
@@ -3685,7 +3696,7 @@
       <c r="N34" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" t="s">
         <v>57</v>
       </c>
       <c r="P34" s="3">
@@ -3718,7 +3729,7 @@
       <c r="H35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="3">
@@ -3736,7 +3747,7 @@
       <c r="N35" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" t="s">
         <v>41</v>
       </c>
       <c r="P35" s="3">
@@ -3769,7 +3780,7 @@
       <c r="H36" s="3">
         <v>1</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="3">
@@ -3787,7 +3798,7 @@
       <c r="N36" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" t="s">
         <v>64</v>
       </c>
       <c r="P36" s="3">
@@ -3820,7 +3831,7 @@
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="3">
@@ -3838,7 +3849,7 @@
       <c r="N37" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" t="s">
         <v>64</v>
       </c>
       <c r="P37" s="3">
@@ -3871,7 +3882,7 @@
       <c r="H38" s="3">
         <v>1</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" t="s">
         <v>16</v>
       </c>
       <c r="J38" s="3">
@@ -3889,7 +3900,7 @@
       <c r="N38" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" t="s">
         <v>64</v>
       </c>
       <c r="P38" s="3">
@@ -3922,7 +3933,7 @@
       <c r="H39" s="3">
         <v>1</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" t="s">
         <v>16</v>
       </c>
       <c r="J39" s="3">
@@ -3940,7 +3951,7 @@
       <c r="N39" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" t="s">
         <v>64</v>
       </c>
       <c r="P39" s="3">
@@ -3973,7 +3984,7 @@
       <c r="H40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="3">
@@ -3991,7 +4002,7 @@
       <c r="N40" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" t="s">
         <v>34</v>
       </c>
       <c r="P40" s="3">
@@ -4024,7 +4035,7 @@
       <c r="H41" s="3">
         <v>1</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" t="s">
         <v>16</v>
       </c>
       <c r="J41" s="3">
@@ -4042,7 +4053,7 @@
       <c r="N41" s="3">
         <v>0.94565217391304346</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" t="s">
         <v>223</v>
       </c>
       <c r="P41" s="3">
@@ -4075,7 +4086,7 @@
       <c r="H42" s="3">
         <v>1</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="3">
@@ -4093,7 +4104,7 @@
       <c r="N42" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" t="s">
         <v>129</v>
       </c>
       <c r="P42" s="3">
@@ -4126,7 +4137,7 @@
       <c r="H43" s="3">
         <v>1</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" t="s">
         <v>16</v>
       </c>
       <c r="J43" s="3">
@@ -4144,7 +4155,7 @@
       <c r="N43" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" t="s">
         <v>57</v>
       </c>
       <c r="P43" s="3">
@@ -4177,7 +4188,7 @@
       <c r="H44" s="3">
         <v>0.97257769652650827</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" t="s">
         <v>228</v>
       </c>
       <c r="J44" s="3">
@@ -4195,7 +4206,7 @@
       <c r="N44" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" t="s">
         <v>17</v>
       </c>
       <c r="P44" s="3">
@@ -4228,7 +4239,7 @@
       <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" t="s">
         <v>16</v>
       </c>
       <c r="J45" s="3">
@@ -4246,7 +4257,7 @@
       <c r="N45" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" t="s">
         <v>46</v>
       </c>
       <c r="P45" s="3">
@@ -4256,61 +4267,61 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>0.99722226004547865</v>
       </c>
       <c r="E46" s="3">
-        <v>1</v>
+        <v>0.97416974169741699</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>0.97069597069597069</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>0.97785977859778594</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>16</v>
+        <v>0.97426470588235292</v>
+      </c>
+      <c r="I46" t="s">
+        <v>239</v>
       </c>
       <c r="J46" s="3">
         <v>0.98550899649800749</v>
       </c>
       <c r="K46" s="3">
-        <v>0.9285714285714286</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="L46" s="3">
-        <v>0.92391304347826086</v>
+        <v>0.92473118279569888</v>
       </c>
       <c r="M46" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="N46" s="3">
-        <v>0.9289617486338797</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>91</v>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="O46" t="s">
+        <v>17</v>
       </c>
       <c r="P46" s="3">
         <f>ABS(D46-J46)</f>
-        <v>1.4491003501992505E-2</v>
+        <v>1.1713263547471153E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
@@ -4330,7 +4341,7 @@
       <c r="H47" s="3">
         <v>1</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="3">
@@ -4340,16 +4351,16 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="L47" s="3">
-        <v>0.91489361702127658</v>
+        <v>0.92391304347826086</v>
       </c>
       <c r="M47" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="N47" s="3">
-        <v>0.92972972972972967</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>46</v>
+        <v>0.9289617486338797</v>
+      </c>
+      <c r="O47" t="s">
+        <v>91</v>
       </c>
       <c r="P47" s="3">
         <f>ABS(D47-J47)</f>
@@ -4358,53 +4369,53 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>0.99722226004547865</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3">
-        <v>0.97416974169741699</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>0.97069597069597069</v>
+        <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>0.97785977859778594</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>0.97426470588235292</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>239</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
       </c>
       <c r="J48" s="3">
         <v>0.98550899649800749</v>
       </c>
       <c r="K48" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L48" s="3">
-        <v>0.92473118279569888</v>
+        <v>0.91489361702127658</v>
       </c>
       <c r="M48" s="3">
         <v>0.94505494505494503</v>
       </c>
       <c r="N48" s="3">
-        <v>0.93478260869565222</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>17</v>
+        <v>0.92972972972972967</v>
+      </c>
+      <c r="O48" t="s">
+        <v>46</v>
       </c>
       <c r="P48" s="3">
         <f>ABS(D48-J48)</f>
-        <v>1.1713263547471153E-2</v>
+        <v>1.4491003501992505E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4432,7 +4443,7 @@
       <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" t="s">
         <v>16</v>
       </c>
       <c r="J49" s="3">
@@ -4450,7 +4461,7 @@
       <c r="N49" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="O49" t="s">
         <v>46</v>
       </c>
       <c r="P49" s="3">
@@ -4483,7 +4494,7 @@
       <c r="H50" s="3">
         <v>1</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" t="s">
         <v>16</v>
       </c>
       <c r="J50" s="3">
@@ -4501,7 +4512,7 @@
       <c r="N50" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="O50" t="s">
         <v>129</v>
       </c>
       <c r="P50" s="3">
@@ -4534,7 +4545,7 @@
       <c r="H51" s="3">
         <v>1</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="3">
@@ -4552,7 +4563,7 @@
       <c r="N51" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" t="s">
         <v>46</v>
       </c>
       <c r="P51" s="3">
@@ -4585,7 +4596,7 @@
       <c r="H52" s="3">
         <v>1</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="3">
@@ -4603,7 +4614,7 @@
       <c r="N52" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="O52" t="s">
         <v>123</v>
       </c>
       <c r="P52" s="3">
@@ -4636,7 +4647,7 @@
       <c r="H53" s="3">
         <v>0.97247706422018343</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" t="s">
         <v>365</v>
       </c>
       <c r="J53" s="3">
@@ -4654,7 +4665,7 @@
       <c r="N53" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="O53" t="s">
         <v>17</v>
       </c>
       <c r="P53" s="3">
@@ -4687,7 +4698,7 @@
       <c r="H54" s="3">
         <v>1</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="3">
@@ -4705,7 +4716,7 @@
       <c r="N54" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O54" t="s">
         <v>17</v>
       </c>
       <c r="P54" s="3">
@@ -4738,7 +4749,7 @@
       <c r="H55" s="3">
         <v>1</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" t="s">
         <v>16</v>
       </c>
       <c r="J55" s="3">
@@ -4756,7 +4767,7 @@
       <c r="N55" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="O55" t="s">
         <v>46</v>
       </c>
       <c r="P55" s="3">
@@ -4789,7 +4800,7 @@
       <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" t="s">
         <v>16</v>
       </c>
       <c r="J56" s="3">
@@ -4807,7 +4818,7 @@
       <c r="N56" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="O56" t="s">
         <v>57</v>
       </c>
       <c r="P56" s="3">
@@ -4840,7 +4851,7 @@
       <c r="H57" s="3">
         <v>1</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" t="s">
         <v>16</v>
       </c>
       <c r="J57" s="3">
@@ -4858,7 +4869,7 @@
       <c r="N57" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O57" s="5" t="s">
+      <c r="O57" t="s">
         <v>46</v>
       </c>
       <c r="P57" s="3">
@@ -4891,7 +4902,7 @@
       <c r="H58" s="3">
         <v>1</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" t="s">
         <v>16</v>
       </c>
       <c r="J58" s="3">
@@ -4909,7 +4920,7 @@
       <c r="N58" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O58" s="5" t="s">
+      <c r="O58" t="s">
         <v>46</v>
       </c>
       <c r="P58" s="3">
@@ -4942,7 +4953,7 @@
       <c r="H59" s="3">
         <v>1</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" t="s">
         <v>16</v>
       </c>
       <c r="J59" s="3">
@@ -4960,7 +4971,7 @@
       <c r="N59" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="O59" t="s">
         <v>79</v>
       </c>
       <c r="P59" s="3">
@@ -4993,7 +5004,7 @@
       <c r="H60" s="3">
         <v>1</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" t="s">
         <v>16</v>
       </c>
       <c r="J60" s="3">
@@ -5011,7 +5022,7 @@
       <c r="N60" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O60" s="5" t="s">
+      <c r="O60" t="s">
         <v>129</v>
       </c>
       <c r="P60" s="3">
@@ -5044,7 +5055,7 @@
       <c r="H61" s="3">
         <v>1</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" t="s">
         <v>16</v>
       </c>
       <c r="J61" s="3">
@@ -5062,7 +5073,7 @@
       <c r="N61" s="3">
         <v>0.92307692307692313</v>
       </c>
-      <c r="O61" s="5" t="s">
+      <c r="O61" t="s">
         <v>81</v>
       </c>
       <c r="P61" s="3">
@@ -5095,7 +5106,7 @@
       <c r="H62" s="3">
         <v>1</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="3">
@@ -5113,7 +5124,7 @@
       <c r="N62" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="O62" t="s">
         <v>79</v>
       </c>
       <c r="P62" s="3">
@@ -5146,7 +5157,7 @@
       <c r="H63" s="3">
         <v>1</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" t="s">
         <v>16</v>
       </c>
       <c r="J63" s="3">
@@ -5164,7 +5175,7 @@
       <c r="N63" s="3">
         <v>0.93048128342245984</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" t="s">
         <v>62</v>
       </c>
       <c r="P63" s="3">
@@ -5174,104 +5185,104 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="3">
-        <v>1</v>
+        <v>0.99995915088302179</v>
       </c>
       <c r="E64" s="3">
-        <v>1</v>
+        <v>0.99815498154981552</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>0.99630996309963105</v>
       </c>
       <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>16</v>
+        <v>0.99815157116451014</v>
+      </c>
+      <c r="I64" t="s">
+        <v>122</v>
       </c>
       <c r="J64" s="3">
         <v>0.98381837942277506</v>
       </c>
       <c r="K64" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="L64" s="3">
-        <v>0.92473118279569888</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="M64" s="3">
         <v>0.94505494505494503</v>
       </c>
       <c r="N64" s="3">
-        <v>0.93478260869565222</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>17</v>
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="O64" t="s">
+        <v>258</v>
       </c>
       <c r="P64" s="3">
         <f>ABS(D64-J64)</f>
-        <v>1.6181620577224942E-2</v>
+        <v>1.6140771460246728E-2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="3">
-        <v>0.99995915088302179</v>
+        <v>1</v>
       </c>
       <c r="E65" s="3">
-        <v>0.99815498154981552</v>
+        <v>1</v>
       </c>
       <c r="F65" s="3">
         <v>1</v>
       </c>
       <c r="G65" s="3">
-        <v>0.99630996309963105</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3">
-        <v>0.99815157116451014</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
       </c>
       <c r="J65" s="3">
         <v>0.98381837942277506</v>
       </c>
       <c r="K65" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="L65" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.92473118279569888</v>
       </c>
       <c r="M65" s="3">
         <v>0.94505494505494503</v>
       </c>
       <c r="N65" s="3">
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>258</v>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="O65" t="s">
+        <v>17</v>
       </c>
       <c r="P65" s="3">
         <f>ABS(D65-J65)</f>
-        <v>1.6140771460246728E-2</v>
+        <v>1.6181620577224942E-2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -5299,7 +5310,7 @@
       <c r="H66" s="3">
         <v>0.99264705882352944</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" t="s">
         <v>210</v>
       </c>
       <c r="J66" s="3">
@@ -5317,7 +5328,7 @@
       <c r="N66" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="O66" t="s">
         <v>34</v>
       </c>
       <c r="P66" s="3">
@@ -5350,7 +5361,7 @@
       <c r="H67" s="3">
         <v>1</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" t="s">
         <v>16</v>
       </c>
       <c r="J67" s="3">
@@ -5368,7 +5379,7 @@
       <c r="N67" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O67" s="5" t="s">
+      <c r="O67" t="s">
         <v>129</v>
       </c>
       <c r="P67" s="3">
@@ -5401,7 +5412,7 @@
       <c r="H68" s="3">
         <v>1</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" t="s">
         <v>16</v>
       </c>
       <c r="J68" s="3">
@@ -5419,7 +5430,7 @@
       <c r="N68" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O68" s="5" t="s">
+      <c r="O68" t="s">
         <v>64</v>
       </c>
       <c r="P68" s="3">
@@ -5452,7 +5463,7 @@
       <c r="H69" s="3">
         <v>1</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="3">
@@ -5470,7 +5481,7 @@
       <c r="N69" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O69" s="5" t="s">
+      <c r="O69" t="s">
         <v>79</v>
       </c>
       <c r="P69" s="3">
@@ -5503,7 +5514,7 @@
       <c r="H70" s="3">
         <v>1</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" t="s">
         <v>16</v>
       </c>
       <c r="J70" s="3">
@@ -5521,7 +5532,7 @@
       <c r="N70" s="3">
         <v>0.94565217391304346</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O70" t="s">
         <v>223</v>
       </c>
       <c r="P70" s="3">
@@ -5554,7 +5565,7 @@
       <c r="H71" s="3">
         <v>1</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" t="s">
         <v>16</v>
       </c>
       <c r="J71" s="3">
@@ -5572,7 +5583,7 @@
       <c r="N71" s="3">
         <v>0.93048128342245984</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" t="s">
         <v>62</v>
       </c>
       <c r="P71" s="3">
@@ -5605,7 +5616,7 @@
       <c r="H72" s="3">
         <v>1</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="3">
@@ -5623,7 +5634,7 @@
       <c r="N72" s="3">
         <v>0.91304347826086962</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="O72" t="s">
         <v>87</v>
       </c>
       <c r="P72" s="3">
@@ -5656,7 +5667,7 @@
       <c r="H73" s="3">
         <v>1</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" t="s">
         <v>16</v>
       </c>
       <c r="J73" s="3">
@@ -5674,7 +5685,7 @@
       <c r="N73" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O73" t="s">
         <v>79</v>
       </c>
       <c r="P73" s="3">
@@ -5707,7 +5718,7 @@
       <c r="H74" s="3">
         <v>1</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" t="s">
         <v>16</v>
       </c>
       <c r="J74" s="3">
@@ -5725,7 +5736,7 @@
       <c r="N74" s="3">
         <v>0.9289617486338797</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="O74" t="s">
         <v>91</v>
       </c>
       <c r="P74" s="3">
@@ -5758,7 +5769,7 @@
       <c r="H75" s="3">
         <v>1</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" t="s">
         <v>16</v>
       </c>
       <c r="J75" s="3">
@@ -5776,7 +5787,7 @@
       <c r="N75" s="3">
         <v>0.92553191489361708</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" t="s">
         <v>53</v>
       </c>
       <c r="P75" s="3">
@@ -5809,7 +5820,7 @@
       <c r="H76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" t="s">
         <v>16</v>
       </c>
       <c r="J76" s="3">
@@ -5827,7 +5838,7 @@
       <c r="N76" s="3">
         <v>0.92553191489361708</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O76" t="s">
         <v>53</v>
       </c>
       <c r="P76" s="3">
@@ -5860,7 +5871,7 @@
       <c r="H77" s="3">
         <v>1</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" t="s">
         <v>16</v>
       </c>
       <c r="J77" s="3">
@@ -5878,7 +5889,7 @@
       <c r="N77" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="O77" t="s">
         <v>41</v>
       </c>
       <c r="P77" s="3">
@@ -5911,7 +5922,7 @@
       <c r="H78" s="3">
         <v>1</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" t="s">
         <v>16</v>
       </c>
       <c r="J78" s="3">
@@ -5929,7 +5940,7 @@
       <c r="N78" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" t="s">
         <v>17</v>
       </c>
       <c r="P78" s="3">
@@ -5962,7 +5973,7 @@
       <c r="H79" s="3">
         <v>1</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" t="s">
         <v>16</v>
       </c>
       <c r="J79" s="3">
@@ -5980,7 +5991,7 @@
       <c r="N79" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O79" s="5" t="s">
+      <c r="O79" t="s">
         <v>123</v>
       </c>
       <c r="P79" s="3">
@@ -6013,7 +6024,7 @@
       <c r="H80" s="3">
         <v>1</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="3">
@@ -6031,7 +6042,7 @@
       <c r="N80" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="O80" t="s">
         <v>46</v>
       </c>
       <c r="P80" s="3">
@@ -6064,7 +6075,7 @@
       <c r="H81" s="3">
         <v>1</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" t="s">
         <v>16</v>
       </c>
       <c r="J81" s="3">
@@ -6082,7 +6093,7 @@
       <c r="N81" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="O81" t="s">
         <v>46</v>
       </c>
       <c r="P81" s="3">
@@ -6115,7 +6126,7 @@
       <c r="H82" s="3">
         <v>0.99815157116451014</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" t="s">
         <v>122</v>
       </c>
       <c r="J82" s="3">
@@ -6133,7 +6144,7 @@
       <c r="N82" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" t="s">
         <v>41</v>
       </c>
       <c r="P82" s="3">
@@ -6166,7 +6177,7 @@
       <c r="H83" s="3">
         <v>1</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="3">
@@ -6184,7 +6195,7 @@
       <c r="N83" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O83" s="5" t="s">
+      <c r="O83" t="s">
         <v>46</v>
       </c>
       <c r="P83" s="3">
@@ -6217,7 +6228,7 @@
       <c r="H84" s="3">
         <v>1</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" t="s">
         <v>16</v>
       </c>
       <c r="J84" s="3">
@@ -6235,7 +6246,7 @@
       <c r="N84" s="3">
         <v>0.92307692307692313</v>
       </c>
-      <c r="O84" s="5" t="s">
+      <c r="O84" t="s">
         <v>81</v>
       </c>
       <c r="P84" s="3">
@@ -6268,7 +6279,7 @@
       <c r="H85" s="3">
         <v>1</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" t="s">
         <v>16</v>
       </c>
       <c r="J85" s="3">
@@ -6286,7 +6297,7 @@
       <c r="N85" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" t="s">
         <v>123</v>
       </c>
       <c r="P85" s="3">
@@ -6319,7 +6330,7 @@
       <c r="H86" s="3">
         <v>1</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I86" t="s">
         <v>16</v>
       </c>
       <c r="J86" s="3">
@@ -6337,7 +6348,7 @@
       <c r="N86" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O86" t="s">
         <v>46</v>
       </c>
       <c r="P86" s="3">
@@ -6370,7 +6381,7 @@
       <c r="H87" s="3">
         <v>1</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" t="s">
         <v>16</v>
       </c>
       <c r="J87" s="3">
@@ -6388,7 +6399,7 @@
       <c r="N87" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O87" s="5" t="s">
+      <c r="O87" t="s">
         <v>64</v>
       </c>
       <c r="P87" s="3">
@@ -6421,7 +6432,7 @@
       <c r="H88" s="3">
         <v>1</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I88" t="s">
         <v>16</v>
       </c>
       <c r="J88" s="3">
@@ -6439,7 +6450,7 @@
       <c r="N88" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O88" s="5" t="s">
+      <c r="O88" t="s">
         <v>64</v>
       </c>
       <c r="P88" s="3">
@@ -6472,7 +6483,7 @@
       <c r="H89" s="3">
         <v>1</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" t="s">
         <v>16</v>
       </c>
       <c r="J89" s="3">
@@ -6490,7 +6501,7 @@
       <c r="N89" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O89" s="5" t="s">
+      <c r="O89" t="s">
         <v>64</v>
       </c>
       <c r="P89" s="3">
@@ -6500,61 +6511,61 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="3">
-        <v>1</v>
+        <v>0.999986383627674</v>
       </c>
       <c r="E90" s="3">
-        <v>1</v>
+        <v>0.99815498154981552</v>
       </c>
       <c r="F90" s="3">
-        <v>1</v>
+        <v>0.99632352941176472</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
       </c>
       <c r="H90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>16</v>
+        <v>0.99815837937384899</v>
+      </c>
+      <c r="I90" t="s">
+        <v>106</v>
       </c>
       <c r="J90" s="3">
         <v>0.98297307088515873</v>
       </c>
       <c r="K90" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L90" s="3">
-        <v>0.91578947368421049</v>
+        <v>0.90625</v>
       </c>
       <c r="M90" s="3">
         <v>0.95604395604395609</v>
       </c>
       <c r="N90" s="3">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="O90" s="5" t="s">
-        <v>64</v>
+        <v>0.93048128342245984</v>
+      </c>
+      <c r="O90" t="s">
+        <v>62</v>
       </c>
       <c r="P90" s="3">
         <f>ABS(D90-J90)</f>
-        <v>1.7026929114841272E-2</v>
+        <v>1.7013312742515274E-2</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>15</v>
@@ -6574,26 +6585,26 @@
       <c r="H91" s="3">
         <v>1</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" t="s">
         <v>16</v>
       </c>
       <c r="J91" s="3">
         <v>0.98297307088515873</v>
       </c>
       <c r="K91" s="3">
-        <v>0.93956043956043955</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="L91" s="3">
-        <v>0.92553191489361697</v>
+        <v>0.91578947368421049</v>
       </c>
       <c r="M91" s="3">
         <v>0.95604395604395609</v>
       </c>
       <c r="N91" s="3">
-        <v>0.94054054054054059</v>
-      </c>
-      <c r="O91" s="5" t="s">
-        <v>123</v>
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="O91" t="s">
+        <v>64</v>
       </c>
       <c r="P91" s="3">
         <f>ABS(D91-J91)</f>
@@ -6602,13 +6613,13 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D92" s="3">
         <v>1</v>
@@ -6625,26 +6636,26 @@
       <c r="H92" s="3">
         <v>1</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I92" t="s">
         <v>16</v>
       </c>
       <c r="J92" s="3">
         <v>0.98297307088515873</v>
       </c>
       <c r="K92" s="3">
-        <v>0.92307692307692313</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="L92" s="3">
-        <v>0.92307692307692313</v>
+        <v>0.92553191489361697</v>
       </c>
       <c r="M92" s="3">
-        <v>0.92307692307692313</v>
+        <v>0.95604395604395609</v>
       </c>
       <c r="N92" s="3">
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="O92" s="5" t="s">
-        <v>81</v>
+        <v>0.94054054054054059</v>
+      </c>
+      <c r="O92" t="s">
+        <v>123</v>
       </c>
       <c r="P92" s="3">
         <f>ABS(D92-J92)</f>
@@ -6653,10 +6664,10 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>23</v>
@@ -6676,7 +6687,7 @@
       <c r="H93" s="3">
         <v>1</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" t="s">
         <v>16</v>
       </c>
       <c r="J93" s="3">
@@ -6686,16 +6697,16 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="L93" s="3">
-        <v>0.90526315789473688</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="M93" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N93" s="3">
-        <v>0.92473118279569899</v>
-      </c>
-      <c r="O93" s="5" t="s">
-        <v>57</v>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="O93" t="s">
+        <v>81</v>
       </c>
       <c r="P93" s="3">
         <f>ABS(D93-J93)</f>
@@ -6704,53 +6715,53 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D94" s="3">
-        <v>0.999986383627674</v>
+        <v>1</v>
       </c>
       <c r="E94" s="3">
-        <v>0.99815498154981552</v>
+        <v>1</v>
       </c>
       <c r="F94" s="3">
-        <v>0.99632352941176472</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
       </c>
       <c r="H94" s="3">
-        <v>0.99815837937384899</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
       </c>
       <c r="J94" s="3">
         <v>0.98297307088515873</v>
       </c>
       <c r="K94" s="3">
-        <v>0.9285714285714286</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="L94" s="3">
-        <v>0.90625</v>
+        <v>0.90526315789473688</v>
       </c>
       <c r="M94" s="3">
-        <v>0.95604395604395609</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="N94" s="3">
-        <v>0.93048128342245984</v>
-      </c>
-      <c r="O94" s="5" t="s">
-        <v>62</v>
+        <v>0.92473118279569899</v>
+      </c>
+      <c r="O94" t="s">
+        <v>57</v>
       </c>
       <c r="P94" s="3">
         <f>ABS(D94-J94)</f>
-        <v>1.7013312742515274E-2</v>
+        <v>1.7026929114841272E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -6778,7 +6789,7 @@
       <c r="H95" s="3">
         <v>1</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="I95" t="s">
         <v>16</v>
       </c>
       <c r="J95" s="3">
@@ -6796,7 +6807,7 @@
       <c r="N95" s="3">
         <v>0.91803278688524592</v>
       </c>
-      <c r="O95" s="5" t="s">
+      <c r="O95" t="s">
         <v>156</v>
       </c>
       <c r="P95" s="3">
@@ -6829,7 +6840,7 @@
       <c r="H96" s="3">
         <v>1</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="I96" t="s">
         <v>16</v>
       </c>
       <c r="J96" s="3">
@@ -6847,7 +6858,7 @@
       <c r="N96" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O96" s="5" t="s">
+      <c r="O96" t="s">
         <v>129</v>
       </c>
       <c r="P96" s="3">
@@ -6880,7 +6891,7 @@
       <c r="H97" s="3">
         <v>1</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I97" t="s">
         <v>16</v>
       </c>
       <c r="J97" s="3">
@@ -6898,7 +6909,7 @@
       <c r="N97" s="3">
         <v>0.91803278688524592</v>
       </c>
-      <c r="O97" s="5" t="s">
+      <c r="O97" t="s">
         <v>156</v>
       </c>
       <c r="P97" s="3">
@@ -6931,7 +6942,7 @@
       <c r="H98" s="3">
         <v>1</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="I98" t="s">
         <v>16</v>
       </c>
       <c r="J98" s="3">
@@ -6949,7 +6960,7 @@
       <c r="N98" s="3">
         <v>0.91803278688524592</v>
       </c>
-      <c r="O98" s="5" t="s">
+      <c r="O98" t="s">
         <v>156</v>
       </c>
       <c r="P98" s="3">
@@ -6982,7 +6993,7 @@
       <c r="H99" s="3">
         <v>1</v>
       </c>
-      <c r="I99" s="5" t="s">
+      <c r="I99" t="s">
         <v>16</v>
       </c>
       <c r="J99" s="3">
@@ -7000,7 +7011,7 @@
       <c r="N99" s="3">
         <v>0.91803278688524592</v>
       </c>
-      <c r="O99" s="5" t="s">
+      <c r="O99" t="s">
         <v>156</v>
       </c>
       <c r="P99" s="3">
@@ -7010,104 +7021,104 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>0.99820263885295679</v>
       </c>
       <c r="E100" s="3">
-        <v>1</v>
+        <v>0.98154981549815501</v>
       </c>
       <c r="F100" s="3">
-        <v>1</v>
+        <v>0.97802197802197799</v>
       </c>
       <c r="G100" s="3">
-        <v>1</v>
+        <v>0.98523985239852396</v>
       </c>
       <c r="H100" s="3">
-        <v>1</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>16</v>
+        <v>0.98161764705882359</v>
+      </c>
+      <c r="I100" t="s">
+        <v>113</v>
       </c>
       <c r="J100" s="3">
         <v>0.98261079579760902</v>
       </c>
       <c r="K100" s="3">
-        <v>0.91208791208791207</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L100" s="3">
-        <v>0.90322580645161288</v>
+        <v>0.91489361702127658</v>
       </c>
       <c r="M100" s="3">
-        <v>0.92307692307692313</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="N100" s="3">
-        <v>0.91304347826086962</v>
-      </c>
-      <c r="O100" s="5" t="s">
-        <v>87</v>
+        <v>0.92972972972972967</v>
+      </c>
+      <c r="O100" t="s">
+        <v>46</v>
       </c>
       <c r="P100" s="3">
         <f>ABS(D100-J100)</f>
-        <v>1.7389204202390984E-2</v>
+        <v>1.5591843055347776E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D101" s="3">
-        <v>0.99820263885295679</v>
+        <v>1</v>
       </c>
       <c r="E101" s="3">
-        <v>0.98154981549815501</v>
+        <v>1</v>
       </c>
       <c r="F101" s="3">
-        <v>0.97802197802197799</v>
+        <v>1</v>
       </c>
       <c r="G101" s="3">
-        <v>0.98523985239852396</v>
+        <v>1</v>
       </c>
       <c r="H101" s="3">
-        <v>0.98161764705882359</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
       </c>
       <c r="J101" s="3">
         <v>0.98261079579760902</v>
       </c>
       <c r="K101" s="3">
-        <v>0.9285714285714286</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="L101" s="3">
-        <v>0.91489361702127658</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="M101" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N101" s="3">
-        <v>0.92972972972972967</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>46</v>
+        <v>0.91304347826086962</v>
+      </c>
+      <c r="O101" t="s">
+        <v>87</v>
       </c>
       <c r="P101" s="3">
         <f>ABS(D101-J101)</f>
-        <v>1.5591843055347776E-2</v>
+        <v>1.7389204202390984E-2</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -7135,7 +7146,7 @@
       <c r="H102" s="3">
         <v>1</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="I102" t="s">
         <v>16</v>
       </c>
       <c r="J102" s="3">
@@ -7153,7 +7164,7 @@
       <c r="N102" s="3">
         <v>0.94565217391304346</v>
       </c>
-      <c r="O102" s="5" t="s">
+      <c r="O102" t="s">
         <v>223</v>
       </c>
       <c r="P102" s="3">
@@ -7161,7 +7172,7 @@
         <v>1.7509962564907555E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>46</v>
       </c>
@@ -7186,7 +7197,7 @@
       <c r="H103" s="3">
         <v>0.96028880866425992</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="I103" t="s">
         <v>110</v>
       </c>
       <c r="J103" s="3">
@@ -7204,7 +7215,7 @@
       <c r="N103" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="O103" t="s">
         <v>41</v>
       </c>
       <c r="P103" s="3">
@@ -7237,7 +7248,7 @@
       <c r="H104" s="3">
         <v>1</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I104" t="s">
         <v>16</v>
       </c>
       <c r="J104" s="3">
@@ -7255,7 +7266,7 @@
       <c r="N104" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O104" s="5" t="s">
+      <c r="O104" t="s">
         <v>57</v>
       </c>
       <c r="P104" s="3">
@@ -7288,7 +7299,7 @@
       <c r="H105" s="3">
         <v>1</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="I105" t="s">
         <v>16</v>
       </c>
       <c r="J105" s="3">
@@ -7306,7 +7317,7 @@
       <c r="N105" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O105" s="5" t="s">
+      <c r="O105" t="s">
         <v>57</v>
       </c>
       <c r="P105" s="3">
@@ -7339,7 +7350,7 @@
       <c r="H106" s="3">
         <v>1</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="I106" t="s">
         <v>16</v>
       </c>
       <c r="J106" s="3">
@@ -7357,7 +7368,7 @@
       <c r="N106" s="3">
         <v>0.91304347826086962</v>
       </c>
-      <c r="O106" s="5" t="s">
+      <c r="O106" t="s">
         <v>87</v>
       </c>
       <c r="P106" s="3">
@@ -7390,7 +7401,7 @@
       <c r="H107" s="3">
         <v>1</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="I107" t="s">
         <v>16</v>
       </c>
       <c r="J107" s="3">
@@ -7408,7 +7419,7 @@
       <c r="N107" s="3">
         <v>0.94179894179894175</v>
       </c>
-      <c r="O107" s="5" t="s">
+      <c r="O107" t="s">
         <v>291</v>
       </c>
       <c r="P107" s="3">
@@ -7441,7 +7452,7 @@
       <c r="H108" s="3">
         <v>0.93478260869565233</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="I108" t="s">
         <v>155</v>
       </c>
       <c r="J108" s="3">
@@ -7459,7 +7470,7 @@
       <c r="N108" s="3">
         <v>0.91208791208791207</v>
       </c>
-      <c r="O108" s="5" t="s">
+      <c r="O108" t="s">
         <v>24</v>
       </c>
       <c r="P108" s="3">
@@ -7469,31 +7480,31 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D109" s="3">
-        <v>1</v>
+        <v>0.99372285235767488</v>
       </c>
       <c r="E109" s="3">
-        <v>1</v>
+        <v>0.955719557195572</v>
       </c>
       <c r="F109" s="3">
-        <v>1</v>
+        <v>0.94265232974910396</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0.97047970479704793</v>
       </c>
       <c r="H109" s="3">
-        <v>1</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>16</v>
+        <v>0.95636363636363642</v>
+      </c>
+      <c r="I109" t="s">
+        <v>194</v>
       </c>
       <c r="J109" s="3">
         <v>0.98212776234754262</v>
@@ -7510,23 +7521,23 @@
       <c r="N109" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O109" s="5" t="s">
+      <c r="O109" t="s">
         <v>46</v>
       </c>
       <c r="P109" s="3">
         <f>ABS(D109-J109)</f>
-        <v>1.7872237652457379E-2</v>
+        <v>1.1595090010132258E-2</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D110" s="3">
         <v>1</v>
@@ -7543,26 +7554,26 @@
       <c r="H110" s="3">
         <v>1</v>
       </c>
-      <c r="I110" s="5" t="s">
+      <c r="I110" t="s">
         <v>16</v>
       </c>
       <c r="J110" s="3">
         <v>0.98212776234754262</v>
       </c>
       <c r="K110" s="3">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0.91489361702127658</v>
+      </c>
+      <c r="M110" s="3">
         <v>0.94505494505494503</v>
       </c>
-      <c r="L110" s="3">
-        <v>0.9263157894736842</v>
-      </c>
-      <c r="M110" s="3">
-        <v>0.96703296703296704</v>
-      </c>
       <c r="N110" s="3">
-        <v>0.94623655913978499</v>
-      </c>
-      <c r="O110" s="5" t="s">
-        <v>34</v>
+        <v>0.92972972972972967</v>
+      </c>
+      <c r="O110" t="s">
+        <v>46</v>
       </c>
       <c r="P110" s="3">
         <f>ABS(D110-J110)</f>
@@ -7571,13 +7582,13 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>458</v>
+        <v>377</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D111" s="3">
         <v>1</v>
@@ -7594,33 +7605,33 @@
       <c r="H111" s="3">
         <v>1</v>
       </c>
-      <c r="I111" s="5" t="s">
+      <c r="I111" t="s">
         <v>16</v>
       </c>
       <c r="J111" s="3">
         <v>0.98212776234754262</v>
       </c>
       <c r="K111" s="3">
-        <v>0.9285714285714286</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="L111" s="3">
-        <v>0.91489361702127658</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="M111" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.96703296703296704</v>
       </c>
       <c r="N111" s="3">
-        <v>0.92972972972972967</v>
-      </c>
-      <c r="O111" s="5" t="s">
-        <v>46</v>
+        <v>0.94623655913978499</v>
+      </c>
+      <c r="O111" t="s">
+        <v>34</v>
       </c>
       <c r="P111" s="3">
         <f>ABS(D111-J111)</f>
         <v>1.7872237652457379E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>19</v>
       </c>
@@ -7645,7 +7656,7 @@
       <c r="H112" s="3">
         <v>0.95855855855855865</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="I112" t="s">
         <v>60</v>
       </c>
       <c r="J112" s="3">
@@ -7663,7 +7674,7 @@
       <c r="N112" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O112" s="5" t="s">
+      <c r="O112" t="s">
         <v>41</v>
       </c>
       <c r="P112" s="3">
@@ -7673,31 +7684,31 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>458</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D113" s="3">
-        <v>0.99372285235767488</v>
+        <v>1</v>
       </c>
       <c r="E113" s="3">
-        <v>0.955719557195572</v>
+        <v>1</v>
       </c>
       <c r="F113" s="3">
-        <v>0.94265232974910396</v>
+        <v>1</v>
       </c>
       <c r="G113" s="3">
-        <v>0.97047970479704793</v>
+        <v>1</v>
       </c>
       <c r="H113" s="3">
-        <v>0.95636363636363642</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
       </c>
       <c r="J113" s="3">
         <v>0.98212776234754262</v>
@@ -7714,12 +7725,12 @@
       <c r="N113" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O113" s="5" t="s">
+      <c r="O113" t="s">
         <v>46</v>
       </c>
       <c r="P113" s="3">
         <f>ABS(D113-J113)</f>
-        <v>1.1595090010132258E-2</v>
+        <v>1.7872237652457379E-2</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -7747,7 +7758,7 @@
       <c r="H114" s="3">
         <v>1</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="I114" t="s">
         <v>16</v>
       </c>
       <c r="J114" s="3">
@@ -7765,7 +7776,7 @@
       <c r="N114" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O114" s="5" t="s">
+      <c r="O114" t="s">
         <v>57</v>
       </c>
       <c r="P114" s="3">
@@ -7798,7 +7809,7 @@
       <c r="H115" s="3">
         <v>1</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="I115" t="s">
         <v>16</v>
       </c>
       <c r="J115" s="3">
@@ -7816,7 +7827,7 @@
       <c r="N115" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O115" s="5" t="s">
+      <c r="O115" t="s">
         <v>57</v>
       </c>
       <c r="P115" s="3">
@@ -7849,7 +7860,7 @@
       <c r="H116" s="3">
         <v>1</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="I116" t="s">
         <v>16</v>
       </c>
       <c r="J116" s="3">
@@ -7867,7 +7878,7 @@
       <c r="N116" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O116" s="5" t="s">
+      <c r="O116" t="s">
         <v>57</v>
       </c>
       <c r="P116" s="3">
@@ -7875,7 +7886,7 @@
         <v>1.8113754377490521E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>70</v>
       </c>
@@ -7900,7 +7911,7 @@
       <c r="H117" s="3">
         <v>0.94642857142857129</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I117" t="s">
         <v>143</v>
       </c>
       <c r="J117" s="3">
@@ -7918,7 +7929,7 @@
       <c r="N117" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O117" s="5" t="s">
+      <c r="O117" t="s">
         <v>41</v>
       </c>
       <c r="P117" s="3">
@@ -7951,7 +7962,7 @@
       <c r="H118" s="3">
         <v>1</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="I118" t="s">
         <v>16</v>
       </c>
       <c r="J118" s="3">
@@ -7969,7 +7980,7 @@
       <c r="N118" s="3">
         <v>0.91304347826086962</v>
       </c>
-      <c r="O118" s="5" t="s">
+      <c r="O118" t="s">
         <v>87</v>
       </c>
       <c r="P118" s="3">
@@ -8002,7 +8013,7 @@
       <c r="H119" s="3">
         <v>1</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I119" t="s">
         <v>16</v>
       </c>
       <c r="J119" s="3">
@@ -8020,7 +8031,7 @@
       <c r="N119" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" t="s">
         <v>79</v>
       </c>
       <c r="P119" s="3">
@@ -8053,7 +8064,7 @@
       <c r="H120" s="3">
         <v>1</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="I120" t="s">
         <v>16</v>
       </c>
       <c r="J120" s="3">
@@ -8071,7 +8082,7 @@
       <c r="N120" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O120" s="5" t="s">
+      <c r="O120" t="s">
         <v>46</v>
       </c>
       <c r="P120" s="3">
@@ -8104,7 +8115,7 @@
       <c r="H121" s="3">
         <v>1</v>
       </c>
-      <c r="I121" s="5" t="s">
+      <c r="I121" t="s">
         <v>16</v>
       </c>
       <c r="J121" s="3">
@@ -8122,7 +8133,7 @@
       <c r="N121" s="3">
         <v>0.90710382513661203</v>
       </c>
-      <c r="O121" s="5" t="s">
+      <c r="O121" t="s">
         <v>116</v>
       </c>
       <c r="P121" s="3">
@@ -8132,53 +8143,53 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D122" s="3">
-        <v>1</v>
+        <v>0.98215574406666584</v>
       </c>
       <c r="E122" s="3">
-        <v>1</v>
+        <v>0.92066420664206639</v>
       </c>
       <c r="F122" s="3">
-        <v>1</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="G122" s="3">
-        <v>1</v>
+        <v>0.95202952029520294</v>
       </c>
       <c r="H122" s="3">
-        <v>1</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>16</v>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="I122" t="s">
+        <v>336</v>
       </c>
       <c r="J122" s="3">
         <v>0.98140321217244297</v>
       </c>
       <c r="K122" s="3">
-        <v>0.90659340659340659</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="L122" s="3">
-        <v>0.90217391304347827</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="M122" s="3">
-        <v>0.91208791208791207</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N122" s="3">
-        <v>0.90710382513661203</v>
-      </c>
-      <c r="O122" s="5" t="s">
-        <v>116</v>
+        <v>0.91304347826086962</v>
+      </c>
+      <c r="O122" t="s">
+        <v>87</v>
       </c>
       <c r="P122" s="3">
         <f>ABS(D122-J122)</f>
-        <v>1.8596787827557026E-2</v>
+        <v>7.5253189422286315E-4</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -8206,7 +8217,7 @@
       <c r="H123" s="3">
         <v>0.99447513812154709</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="I123" t="s">
         <v>176</v>
       </c>
       <c r="J123" s="3">
@@ -8224,7 +8235,7 @@
       <c r="N123" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O123" s="5" t="s">
+      <c r="O123" t="s">
         <v>41</v>
       </c>
       <c r="P123" s="3">
@@ -8234,53 +8245,53 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>115</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D124" s="3">
-        <v>0.98215574406666584</v>
+        <v>1</v>
       </c>
       <c r="E124" s="3">
-        <v>0.92066420664206639</v>
+        <v>1</v>
       </c>
       <c r="F124" s="3">
-        <v>0.89583333333333337</v>
+        <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>0.95202952029520294</v>
+        <v>1</v>
       </c>
       <c r="H124" s="3">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>336</v>
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
       </c>
       <c r="J124" s="3">
         <v>0.98140321217244297</v>
       </c>
       <c r="K124" s="3">
+        <v>0.90659340659340659</v>
+      </c>
+      <c r="L124" s="3">
+        <v>0.90217391304347827</v>
+      </c>
+      <c r="M124" s="3">
         <v>0.91208791208791207</v>
       </c>
-      <c r="L124" s="3">
-        <v>0.90322580645161288</v>
-      </c>
-      <c r="M124" s="3">
-        <v>0.92307692307692313</v>
-      </c>
       <c r="N124" s="3">
-        <v>0.91304347826086962</v>
-      </c>
-      <c r="O124" s="5" t="s">
-        <v>87</v>
+        <v>0.90710382513661203</v>
+      </c>
+      <c r="O124" t="s">
+        <v>116</v>
       </c>
       <c r="P124" s="3">
         <f>ABS(D124-J124)</f>
-        <v>7.5253189422286315E-4</v>
+        <v>1.8596787827557026E-2</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -8308,7 +8319,7 @@
       <c r="H125" s="3">
         <v>1</v>
       </c>
-      <c r="I125" s="5" t="s">
+      <c r="I125" t="s">
         <v>16</v>
       </c>
       <c r="J125" s="3">
@@ -8326,7 +8337,7 @@
       <c r="N125" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O125" s="5" t="s">
+      <c r="O125" t="s">
         <v>46</v>
       </c>
       <c r="P125" s="3">
@@ -8359,7 +8370,7 @@
       <c r="H126" s="3">
         <v>1</v>
       </c>
-      <c r="I126" s="5" t="s">
+      <c r="I126" t="s">
         <v>16</v>
       </c>
       <c r="J126" s="3">
@@ -8377,7 +8388,7 @@
       <c r="N126" s="3">
         <v>0.91208791208791207</v>
       </c>
-      <c r="O126" s="5" t="s">
+      <c r="O126" t="s">
         <v>24</v>
       </c>
       <c r="P126" s="3">
@@ -8410,7 +8421,7 @@
       <c r="H127" s="3">
         <v>1</v>
       </c>
-      <c r="I127" s="5" t="s">
+      <c r="I127" t="s">
         <v>16</v>
       </c>
       <c r="J127" s="3">
@@ -8428,7 +8439,7 @@
       <c r="N127" s="3">
         <v>0.91304347826086962</v>
       </c>
-      <c r="O127" s="5" t="s">
+      <c r="O127" t="s">
         <v>87</v>
       </c>
       <c r="P127" s="3">
@@ -8461,7 +8472,7 @@
       <c r="H128" s="3">
         <v>1</v>
       </c>
-      <c r="I128" s="5" t="s">
+      <c r="I128" t="s">
         <v>16</v>
       </c>
       <c r="J128" s="3">
@@ -8479,7 +8490,7 @@
       <c r="N128" s="3">
         <v>0.92553191489361708</v>
       </c>
-      <c r="O128" s="5" t="s">
+      <c r="O128" t="s">
         <v>53</v>
       </c>
       <c r="P128" s="3">
@@ -8512,7 +8523,7 @@
       <c r="H129" s="3">
         <v>1</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="I129" t="s">
         <v>16</v>
       </c>
       <c r="J129" s="3">
@@ -8530,7 +8541,7 @@
       <c r="N129" s="3">
         <v>0.91208791208791207</v>
       </c>
-      <c r="O129" s="5" t="s">
+      <c r="O129" t="s">
         <v>24</v>
       </c>
       <c r="P129" s="3">
@@ -8563,7 +8574,7 @@
       <c r="H130" s="3">
         <v>1</v>
       </c>
-      <c r="I130" s="5" t="s">
+      <c r="I130" t="s">
         <v>16</v>
       </c>
       <c r="J130" s="3">
@@ -8581,7 +8592,7 @@
       <c r="N130" s="3">
         <v>0.90217391304347827</v>
       </c>
-      <c r="O130" s="5" t="s">
+      <c r="O130" t="s">
         <v>39</v>
       </c>
       <c r="P130" s="3">
@@ -8614,7 +8625,7 @@
       <c r="H131" s="3">
         <v>1</v>
       </c>
-      <c r="I131" s="5" t="s">
+      <c r="I131" t="s">
         <v>16</v>
       </c>
       <c r="J131" s="3">
@@ -8632,7 +8643,7 @@
       <c r="N131" s="3">
         <v>0.91208791208791207</v>
       </c>
-      <c r="O131" s="5" t="s">
+      <c r="O131" t="s">
         <v>24</v>
       </c>
       <c r="P131" s="3">
@@ -8665,7 +8676,7 @@
       <c r="H132" s="3">
         <v>1</v>
       </c>
-      <c r="I132" s="5" t="s">
+      <c r="I132" t="s">
         <v>16</v>
       </c>
       <c r="J132" s="3">
@@ -8683,7 +8694,7 @@
       <c r="N132" s="3">
         <v>0.91208791208791207</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" t="s">
         <v>24</v>
       </c>
       <c r="P132" s="3">
@@ -8716,7 +8727,7 @@
       <c r="H133" s="3">
         <v>1</v>
       </c>
-      <c r="I133" s="5" t="s">
+      <c r="I133" t="s">
         <v>16</v>
       </c>
       <c r="J133" s="3">
@@ -8734,7 +8745,7 @@
       <c r="N133" s="3">
         <v>0.91208791208791207</v>
       </c>
-      <c r="O133" s="5" t="s">
+      <c r="O133" t="s">
         <v>24</v>
       </c>
       <c r="P133" s="3">
@@ -8767,7 +8778,7 @@
       <c r="H134" s="3">
         <v>1</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I134" t="s">
         <v>16</v>
       </c>
       <c r="J134" s="3">
@@ -8785,7 +8796,7 @@
       <c r="N134" s="3">
         <v>0.90217391304347827</v>
       </c>
-      <c r="O134" s="5" t="s">
+      <c r="O134" t="s">
         <v>39</v>
       </c>
       <c r="P134" s="3">
@@ -8818,7 +8829,7 @@
       <c r="H135" s="3">
         <v>1</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="I135" t="s">
         <v>16</v>
       </c>
       <c r="J135" s="3">
@@ -8836,7 +8847,7 @@
       <c r="N135" s="3">
         <v>0.90217391304347827</v>
       </c>
-      <c r="O135" s="5" t="s">
+      <c r="O135" t="s">
         <v>39</v>
       </c>
       <c r="P135" s="3">
@@ -8846,61 +8857,61 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D136" s="3">
-        <v>1</v>
+        <v>0.98185618387549189</v>
       </c>
       <c r="E136" s="3">
-        <v>1</v>
+        <v>0.91881918819188191</v>
       </c>
       <c r="F136" s="3">
-        <v>1</v>
+        <v>0.89273356401384085</v>
       </c>
       <c r="G136" s="3">
-        <v>1</v>
+        <v>0.95202952029520294</v>
       </c>
       <c r="H136" s="3">
-        <v>1</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>16</v>
+        <v>0.92142857142857149</v>
+      </c>
+      <c r="I136" t="s">
+        <v>389</v>
       </c>
       <c r="J136" s="3">
         <v>0.9807994203598599</v>
       </c>
       <c r="K136" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.90659340659340659</v>
       </c>
       <c r="L136" s="3">
-        <v>0.92473118279569888</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="M136" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N136" s="3">
-        <v>0.93478260869565222</v>
-      </c>
-      <c r="O136" s="5" t="s">
-        <v>17</v>
+        <v>0.90810810810810805</v>
+      </c>
+      <c r="O136" t="s">
+        <v>323</v>
       </c>
       <c r="P136" s="3">
         <f>ABS(D136-J136)</f>
-        <v>1.9200579640140103E-2</v>
+        <v>1.0567635156319977E-3</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>23</v>
@@ -8920,7 +8931,7 @@
       <c r="H137" s="3">
         <v>1</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="I137" t="s">
         <v>16</v>
       </c>
       <c r="J137" s="3">
@@ -8938,7 +8949,7 @@
       <c r="N137" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O137" s="5" t="s">
+      <c r="O137" t="s">
         <v>17</v>
       </c>
       <c r="P137" s="3">
@@ -8948,10 +8959,10 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>23</v>
@@ -8971,7 +8982,7 @@
       <c r="H138" s="3">
         <v>1</v>
       </c>
-      <c r="I138" s="5" t="s">
+      <c r="I138" t="s">
         <v>16</v>
       </c>
       <c r="J138" s="3">
@@ -8989,7 +9000,7 @@
       <c r="N138" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O138" s="5" t="s">
+      <c r="O138" t="s">
         <v>17</v>
       </c>
       <c r="P138" s="3">
@@ -8999,10 +9010,10 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>23</v>
@@ -9022,7 +9033,7 @@
       <c r="H139" s="3">
         <v>1</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="I139" t="s">
         <v>16</v>
       </c>
       <c r="J139" s="3">
@@ -9040,7 +9051,7 @@
       <c r="N139" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O139" s="5" t="s">
+      <c r="O139" t="s">
         <v>17</v>
       </c>
       <c r="P139" s="3">
@@ -9050,10 +9061,10 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>23</v>
@@ -9073,7 +9084,7 @@
       <c r="H140" s="3">
         <v>1</v>
       </c>
-      <c r="I140" s="5" t="s">
+      <c r="I140" t="s">
         <v>16</v>
       </c>
       <c r="J140" s="3">
@@ -9091,7 +9102,7 @@
       <c r="N140" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O140" s="5" t="s">
+      <c r="O140" t="s">
         <v>17</v>
       </c>
       <c r="P140" s="3">
@@ -9101,10 +9112,10 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>432</v>
+        <v>241</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>23</v>
@@ -9124,7 +9135,7 @@
       <c r="H141" s="3">
         <v>1</v>
       </c>
-      <c r="I141" s="5" t="s">
+      <c r="I141" t="s">
         <v>16</v>
       </c>
       <c r="J141" s="3">
@@ -9142,7 +9153,7 @@
       <c r="N141" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O141" s="5" t="s">
+      <c r="O141" t="s">
         <v>17</v>
       </c>
       <c r="P141" s="3">
@@ -9152,53 +9163,53 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D142" s="3">
-        <v>0.98185618387549189</v>
+        <v>1</v>
       </c>
       <c r="E142" s="3">
-        <v>0.91881918819188191</v>
+        <v>1</v>
       </c>
       <c r="F142" s="3">
-        <v>0.89273356401384085</v>
+        <v>1</v>
       </c>
       <c r="G142" s="3">
-        <v>0.95202952029520294</v>
+        <v>1</v>
       </c>
       <c r="H142" s="3">
-        <v>0.92142857142857149</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>389</v>
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
       </c>
       <c r="J142" s="3">
         <v>0.9807994203598599</v>
       </c>
       <c r="K142" s="3">
-        <v>0.90659340659340659</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="L142" s="3">
-        <v>0.8936170212765957</v>
+        <v>0.92473118279569888</v>
       </c>
       <c r="M142" s="3">
-        <v>0.92307692307692313</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="N142" s="3">
-        <v>0.90810810810810805</v>
-      </c>
-      <c r="O142" s="5" t="s">
-        <v>323</v>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="O142" t="s">
+        <v>17</v>
       </c>
       <c r="P142" s="3">
         <f>ABS(D142-J142)</f>
-        <v>1.0567635156319977E-3</v>
+        <v>1.9200579640140103E-2</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -9226,7 +9237,7 @@
       <c r="H143" s="3">
         <v>1</v>
       </c>
-      <c r="I143" s="5" t="s">
+      <c r="I143" t="s">
         <v>16</v>
       </c>
       <c r="J143" s="3">
@@ -9244,7 +9255,7 @@
       <c r="N143" s="3">
         <v>0.91712707182320441</v>
       </c>
-      <c r="O143" s="5" t="s">
+      <c r="O143" t="s">
         <v>32</v>
       </c>
       <c r="P143" s="3">
@@ -9277,7 +9288,7 @@
       <c r="H144" s="3">
         <v>1</v>
       </c>
-      <c r="I144" s="5" t="s">
+      <c r="I144" t="s">
         <v>16</v>
       </c>
       <c r="J144" s="3">
@@ -9295,7 +9306,7 @@
       <c r="N144" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O144" s="5" t="s">
+      <c r="O144" t="s">
         <v>17</v>
       </c>
       <c r="P144" s="3">
@@ -9328,7 +9339,7 @@
       <c r="H145" s="3">
         <v>1</v>
       </c>
-      <c r="I145" s="5" t="s">
+      <c r="I145" t="s">
         <v>16</v>
       </c>
       <c r="J145" s="3">
@@ -9346,7 +9357,7 @@
       <c r="N145" s="3">
         <v>0.91712707182320441</v>
       </c>
-      <c r="O145" s="5" t="s">
+      <c r="O145" t="s">
         <v>32</v>
       </c>
       <c r="P145" s="3">
@@ -9379,7 +9390,7 @@
       <c r="H146" s="3">
         <v>1</v>
       </c>
-      <c r="I146" s="5" t="s">
+      <c r="I146" t="s">
         <v>16</v>
       </c>
       <c r="J146" s="3">
@@ -9397,7 +9408,7 @@
       <c r="N146" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O146" s="5" t="s">
+      <c r="O146" t="s">
         <v>17</v>
       </c>
       <c r="P146" s="3">
@@ -9405,7 +9416,7 @@
         <v>1.9321338002656674E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>247</v>
       </c>
@@ -9430,7 +9441,7 @@
       <c r="H147" s="3">
         <v>0.94434470377019741</v>
       </c>
-      <c r="I147" s="5" t="s">
+      <c r="I147" t="s">
         <v>395</v>
       </c>
       <c r="J147" s="3">
@@ -9448,7 +9459,7 @@
       <c r="N147" s="3">
         <v>0.93048128342245984</v>
       </c>
-      <c r="O147" s="5" t="s">
+      <c r="O147" t="s">
         <v>62</v>
       </c>
       <c r="P147" s="3">
@@ -9456,7 +9467,7 @@
         <v>1.0836549055087574E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>82</v>
       </c>
@@ -9481,7 +9492,7 @@
       <c r="H148" s="3">
         <v>0.93783303730017764</v>
       </c>
-      <c r="I148" s="5" t="s">
+      <c r="I148" t="s">
         <v>164</v>
       </c>
       <c r="J148" s="3">
@@ -9499,7 +9510,7 @@
       <c r="N148" s="3">
         <v>0.92553191489361708</v>
       </c>
-      <c r="O148" s="5" t="s">
+      <c r="O148" t="s">
         <v>53</v>
       </c>
       <c r="P148" s="3">
@@ -9507,7 +9518,7 @@
         <v>8.9385063365072792E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>154</v>
       </c>
@@ -9532,7 +9543,7 @@
       <c r="H149" s="3">
         <v>0.92119089316987746</v>
       </c>
-      <c r="I149" s="5" t="s">
+      <c r="I149" t="s">
         <v>267</v>
       </c>
       <c r="J149" s="3">
@@ -9550,7 +9561,7 @@
       <c r="N149" s="3">
         <v>0.91397849462365599</v>
       </c>
-      <c r="O149" s="5" t="s">
+      <c r="O149" t="s">
         <v>21</v>
       </c>
       <c r="P149" s="3">
@@ -9558,7 +9569,7 @@
         <v>2.7715738639255694E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>259</v>
       </c>
@@ -9583,7 +9594,7 @@
       <c r="H150" s="3">
         <v>0.91768826619964972</v>
       </c>
-      <c r="I150" s="5" t="s">
+      <c r="I150" t="s">
         <v>36</v>
       </c>
       <c r="J150" s="3">
@@ -9601,7 +9612,7 @@
       <c r="N150" s="3">
         <v>0.92063492063492069</v>
       </c>
-      <c r="O150" s="5" t="s">
+      <c r="O150" t="s">
         <v>51</v>
       </c>
       <c r="P150" s="3">
@@ -9634,7 +9645,7 @@
       <c r="H151" s="3">
         <v>1</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="I151" t="s">
         <v>16</v>
       </c>
       <c r="J151" s="3">
@@ -9652,7 +9663,7 @@
       <c r="N151" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O151" s="5" t="s">
+      <c r="O151" t="s">
         <v>123</v>
       </c>
       <c r="P151" s="3">
@@ -9685,7 +9696,7 @@
       <c r="H152" s="3">
         <v>1</v>
       </c>
-      <c r="I152" s="5" t="s">
+      <c r="I152" t="s">
         <v>16</v>
       </c>
       <c r="J152" s="3">
@@ -9703,7 +9714,7 @@
       <c r="N152" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O152" s="5" t="s">
+      <c r="O152" t="s">
         <v>79</v>
       </c>
       <c r="P152" s="3">
@@ -9736,7 +9747,7 @@
       <c r="H153" s="3">
         <v>1</v>
       </c>
-      <c r="I153" s="5" t="s">
+      <c r="I153" t="s">
         <v>16</v>
       </c>
       <c r="J153" s="3">
@@ -9754,7 +9765,7 @@
       <c r="N153" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O153" s="5" t="s">
+      <c r="O153" t="s">
         <v>79</v>
       </c>
       <c r="P153" s="3">
@@ -9762,7 +9773,7 @@
         <v>2.0287404902789463E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>181</v>
       </c>
@@ -9787,7 +9798,7 @@
       <c r="H154" s="3">
         <v>0.92091388400702989</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="I154" t="s">
         <v>307</v>
       </c>
       <c r="J154" s="3">
@@ -9805,7 +9816,7 @@
       <c r="N154" s="3">
         <v>0.91005291005291</v>
       </c>
-      <c r="O154" s="5" t="s">
+      <c r="O154" t="s">
         <v>299</v>
       </c>
       <c r="P154" s="3">
@@ -9838,7 +9849,7 @@
       <c r="H155" s="3">
         <v>0.98901098901098916</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="I155" t="s">
         <v>305</v>
       </c>
       <c r="J155" s="3">
@@ -9856,7 +9867,7 @@
       <c r="N155" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O155" s="5" t="s">
+      <c r="O155" t="s">
         <v>34</v>
       </c>
       <c r="P155" s="3">
@@ -9889,7 +9900,7 @@
       <c r="H156" s="3">
         <v>1</v>
       </c>
-      <c r="I156" s="5" t="s">
+      <c r="I156" t="s">
         <v>16</v>
       </c>
       <c r="J156" s="3">
@@ -9907,7 +9918,7 @@
       <c r="N156" s="3">
         <v>0.90322580645161288</v>
       </c>
-      <c r="O156" s="5" t="s">
+      <c r="O156" t="s">
         <v>153</v>
       </c>
       <c r="P156" s="3">
@@ -9940,7 +9951,7 @@
       <c r="H157" s="3">
         <v>1</v>
       </c>
-      <c r="I157" s="5" t="s">
+      <c r="I157" t="s">
         <v>16</v>
       </c>
       <c r="J157" s="3">
@@ -9958,7 +9969,7 @@
       <c r="N157" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O157" s="5" t="s">
+      <c r="O157" t="s">
         <v>64</v>
       </c>
       <c r="P157" s="3">
@@ -9991,7 +10002,7 @@
       <c r="H158" s="3">
         <v>1</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="I158" t="s">
         <v>16</v>
       </c>
       <c r="J158" s="3">
@@ -10009,7 +10020,7 @@
       <c r="N158" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O158" s="5" t="s">
+      <c r="O158" t="s">
         <v>123</v>
       </c>
       <c r="P158" s="3">
@@ -10042,7 +10053,7 @@
       <c r="H159" s="3">
         <v>1</v>
       </c>
-      <c r="I159" s="5" t="s">
+      <c r="I159" t="s">
         <v>16</v>
       </c>
       <c r="J159" s="3">
@@ -10060,7 +10071,7 @@
       <c r="N159" s="3">
         <v>0.90322580645161288</v>
       </c>
-      <c r="O159" s="5" t="s">
+      <c r="O159" t="s">
         <v>153</v>
       </c>
       <c r="P159" s="3">
@@ -10093,7 +10104,7 @@
       <c r="H160" s="3">
         <v>1</v>
       </c>
-      <c r="I160" s="5" t="s">
+      <c r="I160" t="s">
         <v>16</v>
       </c>
       <c r="J160" s="3">
@@ -10111,7 +10122,7 @@
       <c r="N160" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O160" s="5" t="s">
+      <c r="O160" t="s">
         <v>64</v>
       </c>
       <c r="P160" s="3">
@@ -10144,7 +10155,7 @@
       <c r="H161" s="3">
         <v>1</v>
       </c>
-      <c r="I161" s="5" t="s">
+      <c r="I161" t="s">
         <v>16</v>
       </c>
       <c r="J161" s="3">
@@ -10162,7 +10173,7 @@
       <c r="N161" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O161" s="5" t="s">
+      <c r="O161" t="s">
         <v>64</v>
       </c>
       <c r="P161" s="3">
@@ -10170,7 +10181,7 @@
         <v>2.0408163265306145E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>268</v>
       </c>
@@ -10195,7 +10206,7 @@
       <c r="H162" s="3">
         <v>0.92957746478873227</v>
       </c>
-      <c r="I162" s="5" t="s">
+      <c r="I162" t="s">
         <v>104</v>
       </c>
       <c r="J162" s="3">
@@ -10213,7 +10224,7 @@
       <c r="N162" s="3">
         <v>0.92063492063492069</v>
       </c>
-      <c r="O162" s="5" t="s">
+      <c r="O162" t="s">
         <v>51</v>
       </c>
       <c r="P162" s="3">
@@ -10246,7 +10257,7 @@
       <c r="H163" s="3">
         <v>1</v>
       </c>
-      <c r="I163" s="5" t="s">
+      <c r="I163" t="s">
         <v>16</v>
       </c>
       <c r="J163" s="3">
@@ -10264,7 +10275,7 @@
       <c r="N163" s="3">
         <v>0.91304347826086962</v>
       </c>
-      <c r="O163" s="5" t="s">
+      <c r="O163" t="s">
         <v>87</v>
       </c>
       <c r="P163" s="3">
@@ -10272,7 +10283,7 @@
         <v>2.0770438352855969E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>112</v>
       </c>
@@ -10297,7 +10308,7 @@
       <c r="H164" s="3">
         <v>0.91929824561403495</v>
       </c>
-      <c r="I164" s="5" t="s">
+      <c r="I164" t="s">
         <v>206</v>
       </c>
       <c r="J164" s="3">
@@ -10315,7 +10326,7 @@
       <c r="N164" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O164" s="5" t="s">
+      <c r="O164" t="s">
         <v>207</v>
       </c>
       <c r="P164" s="3">
@@ -10323,7 +10334,7 @@
         <v>2.5952565587058496E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>196</v>
       </c>
@@ -10348,7 +10359,7 @@
       <c r="H165" s="3">
         <v>0.92794376098418274</v>
       </c>
-      <c r="I165" s="5" t="s">
+      <c r="I165" t="s">
         <v>330</v>
       </c>
       <c r="J165" s="3">
@@ -10366,7 +10377,7 @@
       <c r="N165" s="3">
         <v>0.92063492063492069</v>
       </c>
-      <c r="O165" s="5" t="s">
+      <c r="O165" t="s">
         <v>51</v>
       </c>
       <c r="P165" s="3">
@@ -10399,7 +10410,7 @@
       <c r="H166" s="3">
         <v>0.98720292504570373</v>
       </c>
-      <c r="I166" s="5" t="s">
+      <c r="I166" t="s">
         <v>146</v>
       </c>
       <c r="J166" s="3">
@@ -10417,7 +10428,7 @@
       <c r="N166" s="3">
         <v>0.93617021276595747</v>
       </c>
-      <c r="O166" s="5" t="s">
+      <c r="O166" t="s">
         <v>147</v>
       </c>
       <c r="P166" s="3">
@@ -10450,7 +10461,7 @@
       <c r="H167" s="3">
         <v>1</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I167" t="s">
         <v>16</v>
       </c>
       <c r="J167" s="3">
@@ -10468,7 +10479,7 @@
       <c r="N167" s="3">
         <v>0.90109890109890112</v>
       </c>
-      <c r="O167" s="5" t="s">
+      <c r="O167" t="s">
         <v>350</v>
       </c>
       <c r="P167" s="3">
@@ -10501,7 +10512,7 @@
       <c r="H168" s="3">
         <v>1</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="I168" t="s">
         <v>16</v>
       </c>
       <c r="J168" s="3">
@@ -10519,7 +10530,7 @@
       <c r="N168" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O168" s="5" t="s">
+      <c r="O168" t="s">
         <v>129</v>
       </c>
       <c r="P168" s="3">
@@ -10552,7 +10563,7 @@
       <c r="H169" s="3">
         <v>0.93478260869565233</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="I169" t="s">
         <v>155</v>
       </c>
       <c r="J169" s="3">
@@ -10570,7 +10581,7 @@
       <c r="N169" s="3">
         <v>0.91803278688524592</v>
       </c>
-      <c r="O169" s="5" t="s">
+      <c r="O169" t="s">
         <v>156</v>
       </c>
       <c r="P169" s="3">
@@ -10603,7 +10614,7 @@
       <c r="H170" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="I170" s="5" t="s">
+      <c r="I170" t="s">
         <v>254</v>
       </c>
       <c r="J170" s="3">
@@ -10621,7 +10632,7 @@
       <c r="N170" s="3">
         <v>0.90710382513661203</v>
       </c>
-      <c r="O170" s="5" t="s">
+      <c r="O170" t="s">
         <v>116</v>
       </c>
       <c r="P170" s="3">
@@ -10629,7 +10640,7 @@
         <v>4.7504285437074412E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43</v>
       </c>
@@ -10654,7 +10665,7 @@
       <c r="H171" s="3">
         <v>0.92957746478873227</v>
       </c>
-      <c r="I171" s="5" t="s">
+      <c r="I171" t="s">
         <v>104</v>
       </c>
       <c r="J171" s="3">
@@ -10672,7 +10683,7 @@
       <c r="N171" s="3">
         <v>0.91489361702127658</v>
       </c>
-      <c r="O171" s="5" t="s">
+      <c r="O171" t="s">
         <v>37</v>
       </c>
       <c r="P171" s="3">
@@ -10705,7 +10716,7 @@
       <c r="H172" s="3">
         <v>1</v>
       </c>
-      <c r="I172" s="5" t="s">
+      <c r="I172" t="s">
         <v>16</v>
       </c>
       <c r="J172" s="3">
@@ -10723,7 +10734,7 @@
       <c r="N172" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O172" s="5" t="s">
+      <c r="O172" t="s">
         <v>129</v>
       </c>
       <c r="P172" s="3">
@@ -10756,7 +10767,7 @@
       <c r="H173" s="3">
         <v>1</v>
       </c>
-      <c r="I173" s="5" t="s">
+      <c r="I173" t="s">
         <v>16</v>
       </c>
       <c r="J173" s="3">
@@ -10774,7 +10785,7 @@
       <c r="N173" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O173" s="5" t="s">
+      <c r="O173" t="s">
         <v>129</v>
       </c>
       <c r="P173" s="3">
@@ -10807,7 +10818,7 @@
       <c r="H174" s="3">
         <v>1</v>
       </c>
-      <c r="I174" s="5" t="s">
+      <c r="I174" t="s">
         <v>16</v>
       </c>
       <c r="J174" s="3">
@@ -10825,7 +10836,7 @@
       <c r="N174" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O174" s="5" t="s">
+      <c r="O174" t="s">
         <v>129</v>
       </c>
       <c r="P174" s="3">
@@ -10858,7 +10869,7 @@
       <c r="H175" s="3">
         <v>1</v>
       </c>
-      <c r="I175" s="5" t="s">
+      <c r="I175" t="s">
         <v>16</v>
       </c>
       <c r="J175" s="3">
@@ -10876,7 +10887,7 @@
       <c r="N175" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O175" s="5" t="s">
+      <c r="O175" t="s">
         <v>129</v>
       </c>
       <c r="P175" s="3">
@@ -10909,7 +10920,7 @@
       <c r="H176" s="3">
         <v>1</v>
       </c>
-      <c r="I176" s="5" t="s">
+      <c r="I176" t="s">
         <v>16</v>
       </c>
       <c r="J176" s="3">
@@ -10927,7 +10938,7 @@
       <c r="N176" s="3">
         <v>0.94117647058823528</v>
       </c>
-      <c r="O176" s="5" t="s">
+      <c r="O176" t="s">
         <v>41</v>
       </c>
       <c r="P176" s="3">
@@ -10937,16 +10948,16 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="B177" t="s">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="3">
-        <v>1</v>
+        <v>0.999986383627674</v>
       </c>
       <c r="E177" s="3">
         <v>0.99815498154981552</v>
@@ -10960,44 +10971,44 @@
       <c r="H177" s="3">
         <v>0.99815157116451014</v>
       </c>
-      <c r="I177" s="5" t="s">
+      <c r="I177" t="s">
         <v>122</v>
       </c>
       <c r="J177" s="3">
         <v>0.9780219780219781</v>
       </c>
       <c r="K177" s="3">
-        <v>0.93956043956043955</v>
+        <v>0.91758241758241754</v>
       </c>
       <c r="L177" s="3">
-        <v>0.92553191489361697</v>
+        <v>0.9042553191489362</v>
       </c>
       <c r="M177" s="3">
-        <v>0.95604395604395609</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="N177" s="3">
-        <v>0.94054054054054059</v>
-      </c>
-      <c r="O177" s="5" t="s">
-        <v>123</v>
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="O177" t="s">
+        <v>129</v>
       </c>
       <c r="P177" s="3">
         <f>ABS(D177-J177)</f>
-        <v>2.19780219780219E-2</v>
+        <v>2.1964405605695903E-2</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="B178" t="s">
-        <v>374</v>
+        <v>121</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="3">
-        <v>0.999986383627674</v>
+        <v>1</v>
       </c>
       <c r="E178" s="3">
         <v>0.99815498154981552</v>
@@ -11011,33 +11022,33 @@
       <c r="H178" s="3">
         <v>0.99815157116451014</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="I178" t="s">
         <v>122</v>
       </c>
       <c r="J178" s="3">
         <v>0.9780219780219781</v>
       </c>
       <c r="K178" s="3">
-        <v>0.91758241758241754</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="L178" s="3">
-        <v>0.9042553191489362</v>
+        <v>0.92553191489361697</v>
       </c>
       <c r="M178" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.95604395604395609</v>
       </c>
       <c r="N178" s="3">
-        <v>0.91891891891891897</v>
-      </c>
-      <c r="O178" s="5" t="s">
-        <v>129</v>
+        <v>0.94054054054054059</v>
+      </c>
+      <c r="O178" t="s">
+        <v>123</v>
       </c>
       <c r="P178" s="3">
         <f>ABS(D178-J178)</f>
-        <v>2.1964405605695903E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.19780219780219E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>148</v>
       </c>
@@ -11062,7 +11073,7 @@
       <c r="H179" s="3">
         <v>0.93428063943161632</v>
       </c>
-      <c r="I179" s="5" t="s">
+      <c r="I179" t="s">
         <v>260</v>
       </c>
       <c r="J179" s="3">
@@ -11080,7 +11091,7 @@
       <c r="N179" s="3">
         <v>0.92473118279569899</v>
       </c>
-      <c r="O179" s="5" t="s">
+      <c r="O179" t="s">
         <v>57</v>
       </c>
       <c r="P179" s="3">
@@ -11088,7 +11099,7 @@
         <v>1.0758131181327957E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>283</v>
       </c>
@@ -11113,7 +11124,7 @@
       <c r="H180" s="3">
         <v>0.91608391608391615</v>
       </c>
-      <c r="I180" s="5" t="s">
+      <c r="I180" t="s">
         <v>439</v>
       </c>
       <c r="J180" s="3">
@@ -11131,7 +11142,7 @@
       <c r="N180" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O180" s="5" t="s">
+      <c r="O180" t="s">
         <v>207</v>
       </c>
       <c r="P180" s="3">
@@ -11164,7 +11175,7 @@
       <c r="H181" s="3">
         <v>0.92921960072595278</v>
       </c>
-      <c r="I181" s="5" t="s">
+      <c r="I181" t="s">
         <v>434</v>
       </c>
       <c r="J181" s="3">
@@ -11182,7 +11193,7 @@
       <c r="N181" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O181" s="5" t="s">
+      <c r="O181" t="s">
         <v>79</v>
       </c>
       <c r="P181" s="3">
@@ -11215,7 +11226,7 @@
       <c r="H182" s="3">
         <v>1</v>
       </c>
-      <c r="I182" s="5" t="s">
+      <c r="I182" t="s">
         <v>16</v>
       </c>
       <c r="J182" s="3">
@@ -11233,7 +11244,7 @@
       <c r="N182" s="3">
         <v>0.91891891891891897</v>
       </c>
-      <c r="O182" s="5" t="s">
+      <c r="O182" t="s">
         <v>129</v>
       </c>
       <c r="P182" s="3">
@@ -11266,7 +11277,7 @@
       <c r="H183" s="3">
         <v>1</v>
       </c>
-      <c r="I183" s="5" t="s">
+      <c r="I183" t="s">
         <v>16</v>
       </c>
       <c r="J183" s="3">
@@ -11284,7 +11295,7 @@
       <c r="N183" s="3">
         <v>0.89729729729729724</v>
       </c>
-      <c r="O183" s="5" t="s">
+      <c r="O183" t="s">
         <v>339</v>
       </c>
       <c r="P183" s="3">
@@ -11317,7 +11328,7 @@
       <c r="H184" s="3">
         <v>1</v>
       </c>
-      <c r="I184" s="5" t="s">
+      <c r="I184" t="s">
         <v>16</v>
       </c>
       <c r="J184" s="3">
@@ -11335,7 +11346,7 @@
       <c r="N184" s="3">
         <v>0.92972972972972967</v>
       </c>
-      <c r="O184" s="5" t="s">
+      <c r="O184" t="s">
         <v>46</v>
       </c>
       <c r="P184" s="3">
@@ -11343,7 +11354,7 @@
         <v>2.2702572153121547E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -11368,7 +11379,7 @@
       <c r="H185" s="3">
         <v>0.927433628318584</v>
       </c>
-      <c r="I185" s="5" t="s">
+      <c r="I185" t="s">
         <v>20</v>
       </c>
       <c r="J185" s="3">
@@ -11386,7 +11397,7 @@
       <c r="N185" s="3">
         <v>0.91397849462365599</v>
       </c>
-      <c r="O185" s="5" t="s">
+      <c r="O185" t="s">
         <v>21</v>
       </c>
       <c r="P185" s="3">
@@ -11394,7 +11405,7 @@
         <v>5.9544341920371169E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>124</v>
       </c>
@@ -11419,7 +11430,7 @@
       <c r="H186" s="3">
         <v>0.92280701754385952</v>
       </c>
-      <c r="I186" s="5" t="s">
+      <c r="I186" t="s">
         <v>225</v>
       </c>
       <c r="J186" s="3">
@@ -11437,7 +11448,7 @@
       <c r="N186" s="3">
         <v>0.9197860962566845</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="O186" t="s">
         <v>72</v>
       </c>
       <c r="P186" s="3">
@@ -11445,7 +11456,7 @@
         <v>3.421788939385384E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>121</v>
       </c>
@@ -11470,7 +11481,7 @@
       <c r="H187" s="3">
         <v>0.9309734513274337</v>
       </c>
-      <c r="I187" s="5" t="s">
+      <c r="I187" t="s">
         <v>220</v>
       </c>
       <c r="J187" s="3">
@@ -11488,7 +11499,7 @@
       <c r="N187" s="3">
         <v>0.9197860962566845</v>
       </c>
-      <c r="O187" s="5" t="s">
+      <c r="O187" t="s">
         <v>72</v>
       </c>
       <c r="P187" s="3">
@@ -11496,7 +11507,7 @@
         <v>1.1823090664579872E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>277</v>
       </c>
@@ -11521,7 +11532,7 @@
       <c r="H188" s="3">
         <v>0.91768826619964972</v>
       </c>
-      <c r="I188" s="5" t="s">
+      <c r="I188" t="s">
         <v>36</v>
       </c>
       <c r="J188" s="3">
@@ -11539,7 +11550,7 @@
       <c r="N188" s="3">
         <v>0.91005291005291</v>
       </c>
-      <c r="O188" s="5" t="s">
+      <c r="O188" t="s">
         <v>299</v>
       </c>
       <c r="P188" s="3">
@@ -11547,7 +11558,7 @@
         <v>1.2830154667864413E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>40</v>
       </c>
@@ -11572,7 +11583,7 @@
       <c r="H189" s="3">
         <v>0.92442882249560632</v>
       </c>
-      <c r="I189" s="5" t="s">
+      <c r="I189" t="s">
         <v>99</v>
       </c>
       <c r="J189" s="3">
@@ -11590,7 +11601,7 @@
       <c r="N189" s="3">
         <v>0.91397849462365599</v>
       </c>
-      <c r="O189" s="5" t="s">
+      <c r="O189" t="s">
         <v>21</v>
       </c>
       <c r="P189" s="3">
@@ -11598,7 +11609,7 @@
         <v>5.142123282707356E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>244</v>
       </c>
@@ -11623,7 +11634,7 @@
       <c r="H190" s="3">
         <v>0.91099476439790572</v>
       </c>
-      <c r="I190" s="5" t="s">
+      <c r="I190" t="s">
         <v>391</v>
       </c>
       <c r="J190" s="3">
@@ -11641,7 +11652,7 @@
       <c r="N190" s="3">
         <v>0.90425531914893609</v>
       </c>
-      <c r="O190" s="5" t="s">
+      <c r="O190" t="s">
         <v>85</v>
       </c>
       <c r="P190" s="3">
@@ -11649,7 +11660,7 @@
         <v>4.7179192697962558E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>253</v>
       </c>
@@ -11674,7 +11685,7 @@
       <c r="H191" s="3">
         <v>0.900709219858156</v>
       </c>
-      <c r="I191" s="5" t="s">
+      <c r="I191" t="s">
         <v>403</v>
       </c>
       <c r="J191" s="3">
@@ -11692,7 +11703,7 @@
       <c r="N191" s="3">
         <v>0.90526315789473688</v>
       </c>
-      <c r="O191" s="5" t="s">
+      <c r="O191" t="s">
         <v>404</v>
       </c>
       <c r="P191" s="3">
@@ -11725,7 +11736,7 @@
       <c r="H192" s="3">
         <v>1</v>
       </c>
-      <c r="I192" s="5" t="s">
+      <c r="I192" t="s">
         <v>16</v>
       </c>
       <c r="J192" s="3">
@@ -11743,7 +11754,7 @@
       <c r="N192" s="3">
         <v>0.92553191489361708</v>
       </c>
-      <c r="O192" s="5" t="s">
+      <c r="O192" t="s">
         <v>53</v>
       </c>
       <c r="P192" s="3">
@@ -11776,7 +11787,7 @@
       <c r="H193" s="3">
         <v>1</v>
       </c>
-      <c r="I193" s="5" t="s">
+      <c r="I193" t="s">
         <v>16</v>
       </c>
       <c r="J193" s="3">
@@ -11794,7 +11805,7 @@
       <c r="N193" s="3">
         <v>0.92553191489361708</v>
       </c>
-      <c r="O193" s="5" t="s">
+      <c r="O193" t="s">
         <v>53</v>
       </c>
       <c r="P193" s="3">
@@ -11802,7 +11813,7 @@
         <v>2.3547880690737766E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>25</v>
       </c>
@@ -11827,7 +11838,7 @@
       <c r="H194" s="3">
         <v>0.91036906854130062</v>
       </c>
-      <c r="I194" s="5" t="s">
+      <c r="I194" t="s">
         <v>71</v>
       </c>
       <c r="J194" s="3">
@@ -11845,7 +11856,7 @@
       <c r="N194" s="3">
         <v>0.9197860962566845</v>
       </c>
-      <c r="O194" s="5" t="s">
+      <c r="O194" t="s">
         <v>72</v>
       </c>
       <c r="P194" s="3">
@@ -11878,7 +11889,7 @@
       <c r="H195" s="3">
         <v>1</v>
       </c>
-      <c r="I195" s="5" t="s">
+      <c r="I195" t="s">
         <v>16</v>
       </c>
       <c r="J195" s="3">
@@ -11896,7 +11907,7 @@
       <c r="N195" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O195" s="5" t="s">
+      <c r="O195" t="s">
         <v>207</v>
       </c>
       <c r="P195" s="3">
@@ -11929,7 +11940,7 @@
       <c r="H196" s="3">
         <v>1</v>
       </c>
-      <c r="I196" s="5" t="s">
+      <c r="I196" t="s">
         <v>16</v>
       </c>
       <c r="J196" s="3">
@@ -11947,7 +11958,7 @@
       <c r="N196" s="3">
         <v>0.94623655913978499</v>
       </c>
-      <c r="O196" s="5" t="s">
+      <c r="O196" t="s">
         <v>34</v>
       </c>
       <c r="P196" s="3">
@@ -11955,7 +11966,7 @@
         <v>2.3789397415771019E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>223</v>
       </c>
@@ -11980,7 +11991,7 @@
       <c r="H197" s="3">
         <v>0.91797556719022677</v>
       </c>
-      <c r="I197" s="5" t="s">
+      <c r="I197" t="s">
         <v>230</v>
       </c>
       <c r="J197" s="3">
@@ -11998,7 +12009,7 @@
       <c r="N197" s="3">
         <v>0.91489361702127658</v>
       </c>
-      <c r="O197" s="5" t="s">
+      <c r="O197" t="s">
         <v>37</v>
       </c>
       <c r="P197" s="3">
@@ -12031,7 +12042,7 @@
       <c r="H198" s="3">
         <v>1</v>
       </c>
-      <c r="I198" s="5" t="s">
+      <c r="I198" t="s">
         <v>16</v>
       </c>
       <c r="J198" s="3">
@@ -12049,7 +12060,7 @@
       <c r="N198" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O198" s="5" t="s">
+      <c r="O198" t="s">
         <v>79</v>
       </c>
       <c r="P198" s="3">
@@ -12057,7 +12068,7 @@
         <v>2.3910155778287701E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>139</v>
       </c>
@@ -12082,7 +12093,7 @@
       <c r="H199" s="3">
         <v>0.91549295774647899</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="I199" t="s">
         <v>246</v>
       </c>
       <c r="J199" s="3">
@@ -12100,7 +12111,7 @@
       <c r="N199" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O199" s="5" t="s">
+      <c r="O199" t="s">
         <v>207</v>
       </c>
       <c r="P199" s="3">
@@ -12133,7 +12144,7 @@
       <c r="H200" s="3">
         <v>1</v>
       </c>
-      <c r="I200" s="5" t="s">
+      <c r="I200" t="s">
         <v>16</v>
       </c>
       <c r="J200" s="3">
@@ -12151,7 +12162,7 @@
       <c r="N200" s="3">
         <v>0.92307692307692313</v>
       </c>
-      <c r="O200" s="5" t="s">
+      <c r="O200" t="s">
         <v>81</v>
       </c>
       <c r="P200" s="3">
@@ -12184,7 +12195,7 @@
       <c r="H201" s="3">
         <v>1</v>
       </c>
-      <c r="I201" s="5" t="s">
+      <c r="I201" t="s">
         <v>16</v>
       </c>
       <c r="J201" s="3">
@@ -12202,7 +12213,7 @@
       <c r="N201" s="3">
         <v>0.92307692307692313</v>
       </c>
-      <c r="O201" s="5" t="s">
+      <c r="O201" t="s">
         <v>81</v>
       </c>
       <c r="P201" s="3">
@@ -12212,104 +12223,104 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D202" s="3">
-        <v>1</v>
+        <v>0.99074086681826223</v>
       </c>
       <c r="E202" s="3">
-        <v>1</v>
+        <v>0.94649446494464939</v>
       </c>
       <c r="F202" s="3">
-        <v>1</v>
+        <v>0.93525179856115104</v>
       </c>
       <c r="G202" s="3">
-        <v>1</v>
+        <v>0.95940959409594095</v>
       </c>
       <c r="H202" s="3">
-        <v>1</v>
-      </c>
-      <c r="I202" s="5" t="s">
-        <v>16</v>
+        <v>0.94717668488160289</v>
+      </c>
+      <c r="I202" t="s">
+        <v>249</v>
       </c>
       <c r="J202" s="3">
         <v>0.97572756913416259</v>
       </c>
       <c r="K202" s="3">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="L202" s="3">
+        <v>0.92473118279569888</v>
+      </c>
+      <c r="M202" s="3">
         <v>0.94505494505494503</v>
       </c>
-      <c r="L202" s="3">
-        <v>0.9263157894736842</v>
-      </c>
-      <c r="M202" s="3">
-        <v>0.96703296703296704</v>
-      </c>
       <c r="N202" s="3">
-        <v>0.94623655913978499</v>
-      </c>
-      <c r="O202" s="5" t="s">
-        <v>34</v>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="O202" t="s">
+        <v>17</v>
       </c>
       <c r="P202" s="3">
         <f>ABS(D202-J202)</f>
-        <v>2.4272430865837413E-2</v>
+        <v>1.5013297684099647E-2</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="3">
-        <v>0.99074086681826223</v>
+        <v>1</v>
       </c>
       <c r="E203" s="3">
-        <v>0.94649446494464939</v>
+        <v>1</v>
       </c>
       <c r="F203" s="3">
-        <v>0.93525179856115104</v>
+        <v>1</v>
       </c>
       <c r="G203" s="3">
-        <v>0.95940959409594095</v>
+        <v>1</v>
       </c>
       <c r="H203" s="3">
-        <v>0.94717668488160289</v>
-      </c>
-      <c r="I203" s="5" t="s">
-        <v>249</v>
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
+        <v>16</v>
       </c>
       <c r="J203" s="3">
         <v>0.97572756913416259</v>
       </c>
       <c r="K203" s="3">
-        <v>0.93406593406593408</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="L203" s="3">
-        <v>0.92473118279569888</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="M203" s="3">
-        <v>0.94505494505494503</v>
+        <v>0.96703296703296704</v>
       </c>
       <c r="N203" s="3">
-        <v>0.93478260869565222</v>
-      </c>
-      <c r="O203" s="5" t="s">
-        <v>17</v>
+        <v>0.94623655913978499</v>
+      </c>
+      <c r="O203" t="s">
+        <v>34</v>
       </c>
       <c r="P203" s="3">
         <f>ABS(D203-J203)</f>
-        <v>1.5013297684099647E-2</v>
+        <v>2.4272430865837413E-2</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
@@ -12337,7 +12348,7 @@
       <c r="H204" s="3">
         <v>1</v>
       </c>
-      <c r="I204" s="5" t="s">
+      <c r="I204" t="s">
         <v>16</v>
       </c>
       <c r="J204" s="3">
@@ -12355,7 +12366,7 @@
       <c r="N204" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O204" s="5" t="s">
+      <c r="O204" t="s">
         <v>123</v>
       </c>
       <c r="P204" s="3">
@@ -12363,7 +12374,7 @@
         <v>2.4513947590870666E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>127</v>
       </c>
@@ -12388,7 +12399,7 @@
       <c r="H205" s="3">
         <v>0.91797556719022677</v>
       </c>
-      <c r="I205" s="5" t="s">
+      <c r="I205" t="s">
         <v>230</v>
       </c>
       <c r="J205" s="3">
@@ -12406,7 +12417,7 @@
       <c r="N205" s="3">
         <v>0.91489361702127658</v>
       </c>
-      <c r="O205" s="5" t="s">
+      <c r="O205" t="s">
         <v>37</v>
       </c>
       <c r="P205" s="3">
@@ -12414,7 +12425,7 @@
         <v>1.6520584553740836E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>142</v>
       </c>
@@ -12439,7 +12450,7 @@
       <c r="H206" s="3">
         <v>0.91388400702987693</v>
       </c>
-      <c r="I206" s="5" t="s">
+      <c r="I206" t="s">
         <v>251</v>
       </c>
       <c r="J206" s="3">
@@ -12457,7 +12468,7 @@
       <c r="N206" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O206" s="5" t="s">
+      <c r="O206" t="s">
         <v>207</v>
       </c>
       <c r="P206" s="3">
@@ -12490,7 +12501,7 @@
       <c r="H207" s="3">
         <v>1</v>
       </c>
-      <c r="I207" s="5" t="s">
+      <c r="I207" t="s">
         <v>16</v>
       </c>
       <c r="J207" s="3">
@@ -12508,7 +12519,7 @@
       <c r="N207" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O207" s="5" t="s">
+      <c r="O207" t="s">
         <v>17</v>
       </c>
       <c r="P207" s="3">
@@ -12516,7 +12527,7 @@
         <v>2.4755464315903919E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>187</v>
       </c>
@@ -12541,7 +12552,7 @@
       <c r="H208" s="3">
         <v>0.91958041958041958</v>
       </c>
-      <c r="I208" s="5" t="s">
+      <c r="I208" t="s">
         <v>316</v>
       </c>
       <c r="J208" s="3">
@@ -12559,7 +12570,7 @@
       <c r="N208" s="3">
         <v>0.91489361702127658</v>
       </c>
-      <c r="O208" s="5" t="s">
+      <c r="O208" t="s">
         <v>37</v>
       </c>
       <c r="P208" s="3">
@@ -12567,7 +12578,7 @@
         <v>1.2109675756849514E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>178</v>
       </c>
@@ -12592,7 +12603,7 @@
       <c r="H209" s="3">
         <v>0.91549295774647899</v>
       </c>
-      <c r="I209" s="5" t="s">
+      <c r="I209" t="s">
         <v>246</v>
       </c>
       <c r="J209" s="3">
@@ -12610,7 +12621,7 @@
       <c r="N209" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O209" s="5" t="s">
+      <c r="O209" t="s">
         <v>207</v>
       </c>
       <c r="P209" s="3">
@@ -12643,7 +12654,7 @@
       <c r="H210" s="3">
         <v>0.94871794871794879</v>
       </c>
-      <c r="I210" s="5" t="s">
+      <c r="I210" t="s">
         <v>102</v>
       </c>
       <c r="J210" s="3">
@@ -12661,7 +12672,7 @@
       <c r="N210" s="3">
         <v>0.93548387096774199</v>
       </c>
-      <c r="O210" s="5" t="s">
+      <c r="O210" t="s">
         <v>64</v>
       </c>
       <c r="P210" s="3">
@@ -12669,7 +12680,7 @@
         <v>1.7792131092019936E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>235</v>
       </c>
@@ -12694,7 +12705,7 @@
       <c r="H211" s="3">
         <v>0.91034482758620683</v>
       </c>
-      <c r="I211" s="5" t="s">
+      <c r="I211" t="s">
         <v>271</v>
       </c>
       <c r="J211" s="3">
@@ -12712,7 +12723,7 @@
       <c r="N211" s="3">
         <v>0.9015544041450777</v>
       </c>
-      <c r="O211" s="5" t="s">
+      <c r="O211" t="s">
         <v>272</v>
       </c>
       <c r="P211" s="3">
@@ -12720,7 +12731,7 @@
         <v>5.5481200633076266E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>64</v>
       </c>
@@ -12745,7 +12756,7 @@
       <c r="H212" s="3">
         <v>0.92362344582593259</v>
       </c>
-      <c r="I212" s="5" t="s">
+      <c r="I212" t="s">
         <v>135</v>
       </c>
       <c r="J212" s="3">
@@ -12763,7 +12774,7 @@
       <c r="N212" s="3">
         <v>0.9197860962566845</v>
       </c>
-      <c r="O212" s="5" t="s">
+      <c r="O212" t="s">
         <v>72</v>
       </c>
       <c r="P212" s="3">
@@ -12771,7 +12782,7 @@
         <v>7.7260539662069583E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>67</v>
       </c>
@@ -12796,7 +12807,7 @@
       <c r="H213" s="3">
         <v>0.91739894551845347</v>
       </c>
-      <c r="I213" s="5" t="s">
+      <c r="I213" t="s">
         <v>139</v>
       </c>
       <c r="J213" s="3">
@@ -12814,7 +12825,7 @@
       <c r="N213" s="3">
         <v>0.90425531914893609</v>
       </c>
-      <c r="O213" s="5" t="s">
+      <c r="O213" t="s">
         <v>85</v>
       </c>
       <c r="P213" s="3">
@@ -12822,7 +12833,7 @@
         <v>5.9533851344917288E-4</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>13</v>
       </c>
@@ -12847,7 +12858,7 @@
       <c r="H214" s="3">
         <v>0.92253521126760563</v>
       </c>
-      <c r="I214" s="5" t="s">
+      <c r="I214" t="s">
         <v>50</v>
       </c>
       <c r="J214" s="3">
@@ -12865,7 +12876,7 @@
       <c r="N214" s="3">
         <v>0.92063492063492069</v>
       </c>
-      <c r="O214" s="5" t="s">
+      <c r="O214" t="s">
         <v>51</v>
       </c>
       <c r="P214" s="3">
@@ -12873,7 +12884,7 @@
         <v>7.1642047240012552E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>157</v>
       </c>
@@ -12898,7 +12909,7 @@
       <c r="H215" s="3">
         <v>0.91034482758620683</v>
       </c>
-      <c r="I215" s="5" t="s">
+      <c r="I215" t="s">
         <v>271</v>
       </c>
       <c r="J215" s="3">
@@ -12916,7 +12927,7 @@
       <c r="N215" s="3">
         <v>0.9015544041450777</v>
       </c>
-      <c r="O215" s="5" t="s">
+      <c r="O215" t="s">
         <v>272</v>
       </c>
       <c r="P215" s="3">
@@ -12949,7 +12960,7 @@
       <c r="H216" s="3">
         <v>0.90106007067137805</v>
       </c>
-      <c r="I216" s="5" t="s">
+      <c r="I216" t="s">
         <v>327</v>
       </c>
       <c r="J216" s="3">
@@ -12967,7 +12978,7 @@
       <c r="N216" s="3">
         <v>0.8936170212765957</v>
       </c>
-      <c r="O216" s="5" t="s">
+      <c r="O216" t="s">
         <v>328</v>
       </c>
       <c r="P216" s="3">
@@ -12975,7 +12986,7 @@
         <v>5.8339249395806814E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>175</v>
       </c>
@@ -13000,7 +13011,7 @@
       <c r="H217" s="3">
         <v>0.90972222222222221</v>
       </c>
-      <c r="I217" s="5" t="s">
+      <c r="I217" t="s">
         <v>298</v>
       </c>
       <c r="J217" s="3">
@@ -13018,7 +13029,7 @@
       <c r="N217" s="3">
         <v>0.91005291005291</v>
       </c>
-      <c r="O217" s="5" t="s">
+      <c r="O217" t="s">
         <v>299</v>
       </c>
       <c r="P217" s="3">
@@ -13051,7 +13062,7 @@
       <c r="H218" s="3">
         <v>1</v>
       </c>
-      <c r="I218" s="5" t="s">
+      <c r="I218" t="s">
         <v>16</v>
       </c>
       <c r="J218" s="3">
@@ -13069,7 +13080,7 @@
       <c r="N218" s="3">
         <v>0.91712707182320441</v>
       </c>
-      <c r="O218" s="5" t="s">
+      <c r="O218" t="s">
         <v>32</v>
       </c>
       <c r="P218" s="3">
@@ -13102,7 +13113,7 @@
       <c r="H219" s="3">
         <v>1</v>
       </c>
-      <c r="I219" s="5" t="s">
+      <c r="I219" t="s">
         <v>16</v>
       </c>
       <c r="J219" s="3">
@@ -13120,7 +13131,7 @@
       <c r="N219" s="3">
         <v>0.93478260869565222</v>
       </c>
-      <c r="O219" s="5" t="s">
+      <c r="O219" t="s">
         <v>17</v>
       </c>
       <c r="P219" s="3">
@@ -13128,7 +13139,7 @@
         <v>2.6446081391136356E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>7</v>
       </c>
@@ -13153,7 +13164,7 @@
       <c r="H220" s="3">
         <v>0.91768826619964972</v>
       </c>
-      <c r="I220" s="5" t="s">
+      <c r="I220" t="s">
         <v>36</v>
       </c>
       <c r="J220" s="3">
@@ -13171,7 +13182,7 @@
       <c r="N220" s="3">
         <v>0.91489361702127658</v>
       </c>
-      <c r="O220" s="5" t="s">
+      <c r="O220" t="s">
         <v>37</v>
       </c>
       <c r="P220" s="3">
@@ -13179,7 +13190,7 @@
         <v>2.4812660972269862E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>166</v>
       </c>
@@ -13204,7 +13215,7 @@
       <c r="H221" s="3">
         <v>0.92007104795737116</v>
       </c>
-      <c r="I221" s="5" t="s">
+      <c r="I221" t="s">
         <v>284</v>
       </c>
       <c r="J221" s="3">
@@ -13222,7 +13233,7 @@
       <c r="N221" s="3">
         <v>0.9157894736842106</v>
       </c>
-      <c r="O221" s="5" t="s">
+      <c r="O221" t="s">
         <v>285</v>
       </c>
       <c r="P221" s="3">
@@ -13230,7 +13241,7 @@
         <v>5.8018719563734944E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>85</v>
       </c>
@@ -13255,7 +13266,7 @@
       <c r="H222" s="3">
         <v>0.91191709844559576</v>
       </c>
-      <c r="I222" s="5" t="s">
+      <c r="I222" t="s">
         <v>168</v>
       </c>
       <c r="J222" s="3">
@@ -13273,7 +13284,7 @@
       <c r="N222" s="3">
         <v>0.91191709844559576</v>
       </c>
-      <c r="O222" s="5" t="s">
+      <c r="O222" t="s">
         <v>169</v>
       </c>
       <c r="P222" s="3">
@@ -13281,7 +13292,7 @@
         <v>4.456623370422963E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>103</v>
       </c>
@@ -13306,7 +13317,7 @@
       <c r="H223" s="3">
         <v>0.91901408450704225</v>
       </c>
-      <c r="I223" s="5" t="s">
+      <c r="I223" t="s">
         <v>196</v>
       </c>
       <c r="J223" s="3">
@@ -13324,7 +13335,7 @@
       <c r="N223" s="3">
         <v>0.9197860962566845</v>
       </c>
-      <c r="O223" s="5" t="s">
+      <c r="O223" t="s">
         <v>72</v>
       </c>
       <c r="P223" s="3">
@@ -13357,7 +13368,7 @@
       <c r="H224" s="3">
         <v>1</v>
       </c>
-      <c r="I224" s="5" t="s">
+      <c r="I224" t="s">
         <v>16</v>
       </c>
       <c r="J224" s="3">
@@ -13375,7 +13386,7 @@
       <c r="N224" s="3">
         <v>0.94054054054054059</v>
       </c>
-      <c r="O224" s="5" t="s">
+      <c r="O224" t="s">
         <v>123</v>
       </c>
       <c r="P224" s="3">
@@ -13408,7 +13419,7 @@
       <c r="H225" s="3">
         <v>0.99815837937384899</v>
       </c>
-      <c r="I225" s="5" t="s">
+      <c r="I225" t="s">
         <v>106</v>
       </c>
       <c r="J225" s="3">
@@ -13426,7 +13437,7 @@
       <c r="N225" s="3">
         <v>0.89010989010989006</v>
       </c>
-      <c r="O225" s="5" t="s">
+      <c r="O225" t="s">
         <v>107</v>
       </c>
       <c r="P225" s="3">
@@ -13459,7 +13470,7 @@
       <c r="H226" s="3">
         <v>1</v>
       </c>
-      <c r="I226" s="5" t="s">
+      <c r="I226" t="s">
         <v>16</v>
       </c>
       <c r="J226" s="3">
@@ -13477,7 +13488,7 @@
       <c r="N226" s="3">
         <v>0.89617486338797825</v>
       </c>
-      <c r="O226" s="5" t="s">
+      <c r="O226" t="s">
         <v>354</v>
       </c>
       <c r="P226" s="3">
@@ -13485,7 +13496,7 @@
         <v>2.7593285835044057E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>238</v>
       </c>
@@ -13510,7 +13521,7 @@
       <c r="H227" s="3">
         <v>0.89948892674616698</v>
       </c>
-      <c r="I227" s="5" t="s">
+      <c r="I227" t="s">
         <v>382</v>
       </c>
       <c r="J227" s="3">
@@ -13528,7 +13539,7 @@
       <c r="N227" s="3">
         <v>0.90256410256410258</v>
       </c>
-      <c r="O227" s="5" t="s">
+      <c r="O227" t="s">
         <v>383</v>
       </c>
       <c r="P227" s="3">
@@ -13536,7 +13547,7 @@
         <v>7.4980434460144574E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>22</v>
       </c>
@@ -13561,7 +13572,7 @@
       <c r="H228" s="3">
         <v>0.90877796901893282</v>
       </c>
-      <c r="I228" s="5" t="s">
+      <c r="I228" t="s">
         <v>66</v>
       </c>
       <c r="J228" s="3">
@@ -13579,7 +13590,7 @@
       <c r="N228" s="3">
         <v>0.90721649484536082</v>
       </c>
-      <c r="O228" s="5" t="s">
+      <c r="O228" t="s">
         <v>67</v>
       </c>
       <c r="P228" s="3">
@@ -13587,7 +13598,7 @@
         <v>7.3092032218674552E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>97</v>
       </c>
@@ -13612,7 +13623,7 @@
       <c r="H229" s="3">
         <v>0.90619469026548671</v>
       </c>
-      <c r="I229" s="5" t="s">
+      <c r="I229" t="s">
         <v>184</v>
       </c>
       <c r="J229" s="3">
@@ -13630,7 +13641,7 @@
       <c r="N229" s="3">
         <v>0.92817679558011057</v>
       </c>
-      <c r="O229" s="5" t="s">
+      <c r="O229" t="s">
         <v>185</v>
       </c>
       <c r="P229" s="3">
@@ -13638,7 +13649,7 @@
         <v>1.1572916748350259E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>184</v>
       </c>
@@ -13663,7 +13674,7 @@
       <c r="H230" s="3">
         <v>0.90689655172413786</v>
       </c>
-      <c r="I230" s="5" t="s">
+      <c r="I230" t="s">
         <v>311</v>
       </c>
       <c r="J230" s="3">
@@ -13681,7 +13692,7 @@
       <c r="N230" s="3">
         <v>0.90625</v>
       </c>
-      <c r="O230" s="5" t="s">
+      <c r="O230" t="s">
         <v>312</v>
       </c>
       <c r="P230" s="3">
@@ -13689,7 +13700,7 @@
         <v>6.6846390832857594E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>145</v>
       </c>
@@ -13714,7 +13725,7 @@
       <c r="H231" s="3">
         <v>0.90657439446366783</v>
       </c>
-      <c r="I231" s="5" t="s">
+      <c r="I231" t="s">
         <v>215</v>
       </c>
       <c r="J231" s="3">
@@ -13732,7 +13743,7 @@
       <c r="N231" s="3">
         <v>0.90721649484536082</v>
       </c>
-      <c r="O231" s="5" t="s">
+      <c r="O231" t="s">
         <v>67</v>
       </c>
       <c r="P231" s="3">
@@ -13740,7 +13751,7 @@
         <v>5.5766937271279904E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>31</v>
       </c>
@@ -13765,7 +13776,7 @@
       <c r="H232" s="3">
         <v>0.89911504424778754</v>
       </c>
-      <c r="I232" s="5" t="s">
+      <c r="I232" t="s">
         <v>84</v>
       </c>
       <c r="J232" s="3">
@@ -13783,7 +13794,7 @@
       <c r="N232" s="3">
         <v>0.90425531914893609</v>
       </c>
-      <c r="O232" s="5" t="s">
+      <c r="O232" t="s">
         <v>85</v>
       </c>
       <c r="P232" s="3">
@@ -13791,7 +13802,7 @@
         <v>7.2927044077242265E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>190</v>
       </c>
@@ -13816,7 +13827,7 @@
       <c r="H233" s="3">
         <v>0.90689655172413786</v>
       </c>
-      <c r="I233" s="5" t="s">
+      <c r="I233" t="s">
         <v>311</v>
       </c>
       <c r="J233" s="3">
@@ -13834,7 +13845,7 @@
       <c r="N233" s="3">
         <v>0.90052356020942392</v>
       </c>
-      <c r="O233" s="5" t="s">
+      <c r="O233" t="s">
         <v>95</v>
       </c>
       <c r="P233" s="3">
@@ -13842,7 +13853,7 @@
         <v>6.5982694190939162E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>52</v>
       </c>
@@ -13867,7 +13878,7 @@
       <c r="H234" s="3">
         <v>0.89679715302491103</v>
       </c>
-      <c r="I234" s="5" t="s">
+      <c r="I234" t="s">
         <v>119</v>
       </c>
       <c r="J234" s="3">
@@ -13885,7 +13896,7 @@
       <c r="N234" s="3">
         <v>0.91397849462365599</v>
       </c>
-      <c r="O234" s="5" t="s">
+      <c r="O234" t="s">
         <v>21</v>
       </c>
       <c r="P234" s="3">
@@ -13893,7 +13904,7 @@
         <v>8.6425142564249269E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>295</v>
       </c>
@@ -13918,7 +13929,7 @@
       <c r="H235" s="3">
         <v>0.90467937608318882</v>
       </c>
-      <c r="I235" s="5" t="s">
+      <c r="I235" t="s">
         <v>454</v>
       </c>
       <c r="J235" s="3">
@@ -13936,7 +13947,7 @@
       <c r="N235" s="3">
         <v>0.90052356020942392</v>
       </c>
-      <c r="O235" s="5" t="s">
+      <c r="O235" t="s">
         <v>95</v>
       </c>
       <c r="P235" s="3">
@@ -13944,7 +13955,7 @@
         <v>6.9404677156642558E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>250</v>
       </c>
@@ -13969,7 +13980,7 @@
       <c r="H236" s="3">
         <v>0.90533562822719449</v>
       </c>
-      <c r="I236" s="5" t="s">
+      <c r="I236" t="s">
         <v>399</v>
       </c>
       <c r="J236" s="3">
@@ -13987,7 +13998,7 @@
       <c r="N236" s="3">
         <v>0.90625</v>
       </c>
-      <c r="O236" s="5" t="s">
+      <c r="O236" t="s">
         <v>312</v>
       </c>
       <c r="P236" s="3">
@@ -13995,7 +14006,7 @@
         <v>8.1132647241258793E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>226</v>
       </c>
@@ -14020,7 +14031,7 @@
       <c r="H237" s="3">
         <v>0.90586145648312622</v>
       </c>
-      <c r="I237" s="5" t="s">
+      <c r="I237" t="s">
         <v>367</v>
       </c>
       <c r="J237" s="3">
@@ -14038,7 +14049,7 @@
       <c r="N237" s="3">
         <v>0.90322580645161288</v>
       </c>
-      <c r="O237" s="5" t="s">
+      <c r="O237" t="s">
         <v>153</v>
       </c>
       <c r="P237" s="3">
@@ -14046,7 +14057,7 @@
         <v>7.3779806185172436E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>100</v>
       </c>
@@ -14071,7 +14082,7 @@
       <c r="H238" s="3">
         <v>0.90311418685121103</v>
       </c>
-      <c r="I238" s="5" t="s">
+      <c r="I238" t="s">
         <v>191</v>
       </c>
       <c r="J238" s="3">
@@ -14089,7 +14100,7 @@
       <c r="N238" s="3">
         <v>0.91191709844559576</v>
       </c>
-      <c r="O238" s="5" t="s">
+      <c r="O238" t="s">
         <v>169</v>
       </c>
       <c r="P238" s="3">
@@ -14097,7 +14108,7 @@
         <v>6.9967221933867618E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>292</v>
       </c>
@@ -14122,7 +14133,7 @@
       <c r="H239" s="3">
         <v>0.90344827586206899</v>
       </c>
-      <c r="I239" s="5" t="s">
+      <c r="I239" t="s">
         <v>450</v>
       </c>
       <c r="J239" s="3">
@@ -14140,7 +14151,7 @@
       <c r="N239" s="3">
         <v>0.9015544041450777</v>
       </c>
-      <c r="O239" s="5" t="s">
+      <c r="O239" t="s">
         <v>272</v>
       </c>
       <c r="P239" s="3">
@@ -14148,7 +14159,7 @@
         <v>7.8699590106744433E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>289</v>
       </c>
@@ -14173,7 +14184,7 @@
       <c r="H240" s="3">
         <v>0.90277777777777779</v>
       </c>
-      <c r="I240" s="5" t="s">
+      <c r="I240" t="s">
         <v>446</v>
       </c>
       <c r="J240" s="3">
@@ -14191,7 +14202,7 @@
       <c r="N240" s="3">
         <v>0.90526315789473688</v>
       </c>
-      <c r="O240" s="5" t="s">
+      <c r="O240" t="s">
         <v>404</v>
       </c>
       <c r="P240" s="3">
@@ -14199,7 +14210,7 @@
         <v>5.8618918600864545E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>10</v>
       </c>
@@ -14224,7 +14235,7 @@
       <c r="H241" s="3">
         <v>0.90196078431372551</v>
       </c>
-      <c r="I241" s="5" t="s">
+      <c r="I241" t="s">
         <v>43</v>
       </c>
       <c r="J241" s="3">
@@ -14242,7 +14253,7 @@
       <c r="N241" s="3">
         <v>0.89839572192513373</v>
       </c>
-      <c r="O241" s="5" t="s">
+      <c r="O241" t="s">
         <v>44</v>
       </c>
       <c r="P241" s="3">
@@ -14250,7 +14261,7 @@
         <v>7.3052273266513978E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>160</v>
       </c>
@@ -14275,7 +14286,7 @@
       <c r="H242" s="3">
         <v>0.89839572192513373</v>
       </c>
-      <c r="I242" s="5" t="s">
+      <c r="I242" t="s">
         <v>277</v>
       </c>
       <c r="J242" s="3">
@@ -14293,7 +14304,7 @@
       <c r="N242" s="3">
         <v>0.91397849462365599</v>
       </c>
-      <c r="O242" s="5" t="s">
+      <c r="O242" t="s">
         <v>21</v>
       </c>
       <c r="P242" s="3">
@@ -14301,7 +14312,7 @@
         <v>8.0849385260746143E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>136</v>
       </c>
@@ -14326,7 +14337,7 @@
       <c r="H243" s="3">
         <v>0.90196078431372551</v>
       </c>
-      <c r="I243" s="5" t="s">
+      <c r="I243" t="s">
         <v>43</v>
       </c>
       <c r="J243" s="3">
@@ -14344,7 +14355,7 @@
       <c r="N243" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O243" s="5" t="s">
+      <c r="O243" t="s">
         <v>207</v>
       </c>
       <c r="P243" s="3">
@@ -14352,7 +14363,7 @@
         <v>6.6842411649058464E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>118</v>
       </c>
@@ -14377,7 +14388,7 @@
       <c r="H244" s="3">
         <v>0.90657439446366783</v>
       </c>
-      <c r="I244" s="5" t="s">
+      <c r="I244" t="s">
         <v>215</v>
       </c>
       <c r="J244" s="3">
@@ -14395,7 +14406,7 @@
       <c r="N244" s="3">
         <v>0.89473684210526316</v>
       </c>
-      <c r="O244" s="5" t="s">
+      <c r="O244" t="s">
         <v>216</v>
       </c>
       <c r="P244" s="3">
@@ -14403,7 +14414,7 @@
         <v>6.0732933986503701E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>229</v>
       </c>
@@ -14428,7 +14439,7 @@
       <c r="H245" s="3">
         <v>0.90625</v>
       </c>
-      <c r="I245" s="5" t="s">
+      <c r="I245" t="s">
         <v>371</v>
       </c>
       <c r="J245" s="3">
@@ -14446,7 +14457,7 @@
       <c r="N245" s="3">
         <v>0.89947089947089942</v>
       </c>
-      <c r="O245" s="5" t="s">
+      <c r="O245" t="s">
         <v>372</v>
       </c>
       <c r="P245" s="3">
@@ -14479,7 +14490,7 @@
       <c r="H246" s="3">
         <v>0.9081272084805655</v>
       </c>
-      <c r="I246" s="5" t="s">
+      <c r="I246" t="s">
         <v>322</v>
       </c>
       <c r="J246" s="3">
@@ -14497,7 +14508,7 @@
       <c r="N246" s="3">
         <v>0.90810810810810805</v>
       </c>
-      <c r="O246" s="5" t="s">
+      <c r="O246" t="s">
         <v>323</v>
       </c>
       <c r="P246" s="3">
@@ -14530,7 +14541,7 @@
       <c r="H247" s="3">
         <v>0.99630996309963105</v>
       </c>
-      <c r="I247" s="5" t="s">
+      <c r="I247" t="s">
         <v>412</v>
       </c>
       <c r="J247" s="3">
@@ -14548,7 +14559,7 @@
       <c r="N247" s="3">
         <v>0.89010989010989006</v>
       </c>
-      <c r="O247" s="5" t="s">
+      <c r="O247" t="s">
         <v>107</v>
       </c>
       <c r="P247" s="3">
@@ -14556,7 +14567,7 @@
         <v>3.2020496131180187E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>28</v>
       </c>
@@ -14581,7 +14592,7 @@
       <c r="H248" s="3">
         <v>0.90265486725663724</v>
       </c>
-      <c r="I248" s="5" t="s">
+      <c r="I248" t="s">
         <v>78</v>
       </c>
       <c r="J248" s="3">
@@ -14599,7 +14610,7 @@
       <c r="N248" s="3">
         <v>0.92391304347826086</v>
       </c>
-      <c r="O248" s="5" t="s">
+      <c r="O248" t="s">
         <v>79</v>
       </c>
       <c r="P248" s="3">
@@ -14607,7 +14618,7 @@
         <v>1.396288770821752E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>265</v>
       </c>
@@ -14632,7 +14643,7 @@
       <c r="H249" s="3">
         <v>0.89766606822262129</v>
       </c>
-      <c r="I249" s="5" t="s">
+      <c r="I249" t="s">
         <v>418</v>
       </c>
       <c r="J249" s="3">
@@ -14650,7 +14661,7 @@
       <c r="N249" s="3">
         <v>0.9111111111111112</v>
       </c>
-      <c r="O249" s="5" t="s">
+      <c r="O249" t="s">
         <v>419</v>
       </c>
       <c r="P249" s="3">
@@ -14658,7 +14669,7 @@
         <v>6.3315564035958394E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>211</v>
       </c>
@@ -14683,7 +14694,7 @@
       <c r="H250" s="3">
         <v>0.90689655172413786</v>
       </c>
-      <c r="I250" s="5" t="s">
+      <c r="I250" t="s">
         <v>311</v>
       </c>
       <c r="J250" s="3">
@@ -14701,7 +14712,7 @@
       <c r="N250" s="3">
         <v>0.89690721649484528</v>
       </c>
-      <c r="O250" s="5" t="s">
+      <c r="O250" t="s">
         <v>348</v>
       </c>
       <c r="P250" s="3">
@@ -14709,7 +14720,7 @@
         <v>1.0617712033410553E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>37</v>
       </c>
@@ -14734,7 +14745,7 @@
       <c r="H251" s="3">
         <v>0.89126559714795006</v>
       </c>
-      <c r="I251" s="5" t="s">
+      <c r="I251" t="s">
         <v>94</v>
       </c>
       <c r="J251" s="3">
@@ -14752,7 +14763,7 @@
       <c r="N251" s="3">
         <v>0.90052356020942392</v>
       </c>
-      <c r="O251" s="5" t="s">
+      <c r="O251" t="s">
         <v>95</v>
       </c>
       <c r="P251" s="3">
@@ -14760,7 +14771,7 @@
         <v>2.2731301202424392E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>79</v>
       </c>
@@ -14785,7 +14796,7 @@
       <c r="H252" s="3">
         <v>0.88141592920353984</v>
       </c>
-      <c r="I252" s="5" t="s">
+      <c r="I252" t="s">
         <v>158</v>
       </c>
       <c r="J252" s="3">
@@ -14803,7 +14814,7 @@
       <c r="N252" s="3">
         <v>0.89583333333333326</v>
       </c>
-      <c r="O252" s="5" t="s">
+      <c r="O252" t="s">
         <v>159</v>
       </c>
       <c r="P252" s="3">
@@ -14836,7 +14847,7 @@
       <c r="H253" s="3">
         <v>0.99447513812154709</v>
       </c>
-      <c r="I253" s="5" t="s">
+      <c r="I253" t="s">
         <v>176</v>
       </c>
       <c r="J253" s="3">
@@ -14854,7 +14865,7 @@
       <c r="N253" s="3">
         <v>0.89010989010989006</v>
       </c>
-      <c r="O253" s="5" t="s">
+      <c r="O253" t="s">
         <v>107</v>
       </c>
       <c r="P253" s="3">
@@ -14887,7 +14898,7 @@
       <c r="H254" s="3">
         <v>0.90052356020942403</v>
       </c>
-      <c r="I254" s="5" t="s">
+      <c r="I254" t="s">
         <v>188</v>
       </c>
       <c r="J254" s="3">
@@ -14905,7 +14916,7 @@
       <c r="N254" s="3">
         <v>0.88888888888888895</v>
       </c>
-      <c r="O254" s="5" t="s">
+      <c r="O254" t="s">
         <v>189</v>
       </c>
       <c r="P254" s="3">
@@ -14938,7 +14949,7 @@
       <c r="H255" s="3">
         <v>0.90052356020942403</v>
       </c>
-      <c r="I255" s="5" t="s">
+      <c r="I255" t="s">
         <v>188</v>
       </c>
       <c r="J255" s="3">
@@ -14956,7 +14967,7 @@
       <c r="N255" s="3">
         <v>0.88888888888888895</v>
       </c>
-      <c r="O255" s="5" t="s">
+      <c r="O255" t="s">
         <v>189</v>
       </c>
       <c r="P255" s="3">
@@ -14989,7 +15000,7 @@
       <c r="H256" s="3">
         <v>0.90052356020942403</v>
       </c>
-      <c r="I256" s="5" t="s">
+      <c r="I256" t="s">
         <v>188</v>
       </c>
       <c r="J256" s="3">
@@ -15007,7 +15018,7 @@
       <c r="N256" s="3">
         <v>0.88888888888888895</v>
       </c>
-      <c r="O256" s="5" t="s">
+      <c r="O256" t="s">
         <v>189</v>
       </c>
       <c r="P256" s="3">
@@ -15040,7 +15051,7 @@
       <c r="H257" s="3">
         <v>0.97570093457943918</v>
       </c>
-      <c r="I257" s="5" t="s">
+      <c r="I257" t="s">
         <v>74</v>
       </c>
       <c r="J257" s="3">
@@ -15058,7 +15069,7 @@
       <c r="N257" s="3">
         <v>0.87150837988826813</v>
       </c>
-      <c r="O257" s="5" t="s">
+      <c r="O257" t="s">
         <v>75</v>
       </c>
       <c r="P257" s="3">
@@ -15091,7 +15102,7 @@
       <c r="H258" s="3">
         <v>0.97761194029850751</v>
       </c>
-      <c r="I258" s="5" t="s">
+      <c r="I258" t="s">
         <v>174</v>
       </c>
       <c r="J258" s="3">
@@ -15109,7 +15120,7 @@
       <c r="N258" s="3">
         <v>0.87150837988826813</v>
       </c>
-      <c r="O258" s="5" t="s">
+      <c r="O258" t="s">
         <v>75</v>
       </c>
       <c r="P258" s="3">
@@ -15142,7 +15153,7 @@
       <c r="H259" s="3">
         <v>0.88636363636363624</v>
       </c>
-      <c r="I259" s="5" t="s">
+      <c r="I259" t="s">
         <v>295</v>
       </c>
       <c r="J259" s="3">
@@ -15160,7 +15171,7 @@
       <c r="N259" s="3">
         <v>0.88505747126436773</v>
       </c>
-      <c r="O259" s="5" t="s">
+      <c r="O259" t="s">
         <v>296</v>
       </c>
       <c r="P259" s="3">
@@ -15193,7 +15204,7 @@
       <c r="H260" s="3">
         <v>0</v>
       </c>
-      <c r="I260" s="5" t="s">
+      <c r="I260" t="s">
         <v>26</v>
       </c>
       <c r="J260" s="3">
@@ -15211,7 +15222,7 @@
       <c r="N260" s="3">
         <v>0</v>
       </c>
-      <c r="O260" s="5" t="s">
+      <c r="O260" t="s">
         <v>27</v>
       </c>
       <c r="P260" s="3">
@@ -15219,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>4</v>
       </c>
@@ -15244,7 +15255,7 @@
       <c r="H261" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I261" s="5" t="s">
+      <c r="I261" t="s">
         <v>29</v>
       </c>
       <c r="J261" s="3">
@@ -15262,7 +15273,7 @@
       <c r="N261" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O261" s="5" t="s">
+      <c r="O261" t="s">
         <v>30</v>
       </c>
       <c r="P261" s="3">
@@ -15295,7 +15306,7 @@
       <c r="H262" s="3">
         <v>0</v>
       </c>
-      <c r="I262" s="5" t="s">
+      <c r="I262" t="s">
         <v>26</v>
       </c>
       <c r="J262" s="3">
@@ -15313,7 +15324,7 @@
       <c r="N262" s="3">
         <v>0</v>
       </c>
-      <c r="O262" s="5" t="s">
+      <c r="O262" t="s">
         <v>27</v>
       </c>
       <c r="P262" s="3">
@@ -15321,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>16</v>
       </c>
@@ -15346,7 +15357,7 @@
       <c r="H263" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I263" s="5" t="s">
+      <c r="I263" t="s">
         <v>29</v>
       </c>
       <c r="J263" s="3">
@@ -15364,7 +15375,7 @@
       <c r="N263" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O263" s="5" t="s">
+      <c r="O263" t="s">
         <v>30</v>
       </c>
       <c r="P263" s="3">
@@ -15372,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>34</v>
       </c>
@@ -15397,7 +15408,7 @@
       <c r="H264" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I264" s="5" t="s">
+      <c r="I264" t="s">
         <v>29</v>
       </c>
       <c r="J264" s="3">
@@ -15415,7 +15426,7 @@
       <c r="N264" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O264" s="5" t="s">
+      <c r="O264" t="s">
         <v>30</v>
       </c>
       <c r="P264" s="3">
@@ -15448,7 +15459,7 @@
       <c r="H265" s="3">
         <v>0</v>
       </c>
-      <c r="I265" s="5" t="s">
+      <c r="I265" t="s">
         <v>26</v>
       </c>
       <c r="J265" s="3">
@@ -15466,7 +15477,7 @@
       <c r="N265" s="3">
         <v>0</v>
       </c>
-      <c r="O265" s="5" t="s">
+      <c r="O265" t="s">
         <v>27</v>
       </c>
       <c r="P265" s="3">
@@ -15474,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>49</v>
       </c>
@@ -15499,7 +15510,7 @@
       <c r="H266" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I266" s="5" t="s">
+      <c r="I266" t="s">
         <v>29</v>
       </c>
       <c r="J266" s="3">
@@ -15517,7 +15528,7 @@
       <c r="N266" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O266" s="5" t="s">
+      <c r="O266" t="s">
         <v>30</v>
       </c>
       <c r="P266" s="3">
@@ -15525,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>55</v>
       </c>
@@ -15550,7 +15561,7 @@
       <c r="H267" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I267" s="5" t="s">
+      <c r="I267" t="s">
         <v>29</v>
       </c>
       <c r="J267" s="3">
@@ -15568,7 +15579,7 @@
       <c r="N267" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O267" s="5" t="s">
+      <c r="O267" t="s">
         <v>30</v>
       </c>
       <c r="P267" s="3">
@@ -15576,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>58</v>
       </c>
@@ -15601,7 +15612,7 @@
       <c r="H268" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I268" s="5" t="s">
+      <c r="I268" t="s">
         <v>29</v>
       </c>
       <c r="J268" s="3">
@@ -15619,7 +15630,7 @@
       <c r="N268" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O268" s="5" t="s">
+      <c r="O268" t="s">
         <v>30</v>
       </c>
       <c r="P268" s="3">
@@ -15627,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>61</v>
       </c>
@@ -15652,7 +15663,7 @@
       <c r="H269" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I269" s="5" t="s">
+      <c r="I269" t="s">
         <v>29</v>
       </c>
       <c r="J269" s="3">
@@ -15670,7 +15681,7 @@
       <c r="N269" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O269" s="5" t="s">
+      <c r="O269" t="s">
         <v>30</v>
       </c>
       <c r="P269" s="3">
@@ -15678,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>73</v>
       </c>
@@ -15703,7 +15714,7 @@
       <c r="H270" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I270" s="5" t="s">
+      <c r="I270" t="s">
         <v>29</v>
       </c>
       <c r="J270" s="3">
@@ -15721,7 +15732,7 @@
       <c r="N270" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O270" s="5" t="s">
+      <c r="O270" t="s">
         <v>30</v>
       </c>
       <c r="P270" s="3">
@@ -15729,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>76</v>
       </c>
@@ -15754,7 +15765,7 @@
       <c r="H271" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I271" s="5" t="s">
+      <c r="I271" t="s">
         <v>29</v>
       </c>
       <c r="J271" s="3">
@@ -15772,7 +15783,7 @@
       <c r="N271" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O271" s="5" t="s">
+      <c r="O271" t="s">
         <v>30</v>
       </c>
       <c r="P271" s="3">
@@ -15780,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>88</v>
       </c>
@@ -15805,7 +15816,7 @@
       <c r="H272" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I272" s="5" t="s">
+      <c r="I272" t="s">
         <v>29</v>
       </c>
       <c r="J272" s="3">
@@ -15823,7 +15834,7 @@
       <c r="N272" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O272" s="5" t="s">
+      <c r="O272" t="s">
         <v>30</v>
       </c>
       <c r="P272" s="3">
@@ -15831,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>91</v>
       </c>
@@ -15856,7 +15867,7 @@
       <c r="H273" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I273" s="5" t="s">
+      <c r="I273" t="s">
         <v>29</v>
       </c>
       <c r="J273" s="3">
@@ -15874,7 +15885,7 @@
       <c r="N273" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O273" s="5" t="s">
+      <c r="O273" t="s">
         <v>30</v>
       </c>
       <c r="P273" s="3">
@@ -15882,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>94</v>
       </c>
@@ -15907,7 +15918,7 @@
       <c r="H274" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I274" s="5" t="s">
+      <c r="I274" t="s">
         <v>29</v>
       </c>
       <c r="J274" s="3">
@@ -15925,7 +15936,7 @@
       <c r="N274" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O274" s="5" t="s">
+      <c r="O274" t="s">
         <v>30</v>
       </c>
       <c r="P274" s="3">
@@ -15933,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>106</v>
       </c>
@@ -15958,7 +15969,7 @@
       <c r="H275" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I275" s="5" t="s">
+      <c r="I275" t="s">
         <v>29</v>
       </c>
       <c r="J275" s="3">
@@ -15976,7 +15987,7 @@
       <c r="N275" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O275" s="5" t="s">
+      <c r="O275" t="s">
         <v>30</v>
       </c>
       <c r="P275" s="3">
@@ -15984,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>109</v>
       </c>
@@ -16009,7 +16020,7 @@
       <c r="H276" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I276" s="5" t="s">
+      <c r="I276" t="s">
         <v>29</v>
       </c>
       <c r="J276" s="3">
@@ -16027,7 +16038,7 @@
       <c r="N276" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O276" s="5" t="s">
+      <c r="O276" t="s">
         <v>30</v>
       </c>
       <c r="P276" s="3">
@@ -16035,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>115</v>
       </c>
@@ -16060,7 +16071,7 @@
       <c r="H277" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I277" s="5" t="s">
+      <c r="I277" t="s">
         <v>29</v>
       </c>
       <c r="J277" s="3">
@@ -16078,7 +16089,7 @@
       <c r="N277" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O277" s="5" t="s">
+      <c r="O277" t="s">
         <v>30</v>
       </c>
       <c r="P277" s="3">
@@ -16086,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>130</v>
       </c>
@@ -16111,7 +16122,7 @@
       <c r="H278" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I278" s="5" t="s">
+      <c r="I278" t="s">
         <v>29</v>
       </c>
       <c r="J278" s="3">
@@ -16129,7 +16140,7 @@
       <c r="N278" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O278" s="5" t="s">
+      <c r="O278" t="s">
         <v>30</v>
       </c>
       <c r="P278" s="3">
@@ -16137,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>133</v>
       </c>
@@ -16162,7 +16173,7 @@
       <c r="H279" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I279" s="5" t="s">
+      <c r="I279" t="s">
         <v>29</v>
       </c>
       <c r="J279" s="3">
@@ -16180,7 +16191,7 @@
       <c r="N279" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O279" s="5" t="s">
+      <c r="O279" t="s">
         <v>30</v>
       </c>
       <c r="P279" s="3">
@@ -16188,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>151</v>
       </c>
@@ -16213,7 +16224,7 @@
       <c r="H280" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I280" s="5" t="s">
+      <c r="I280" t="s">
         <v>29</v>
       </c>
       <c r="J280" s="3">
@@ -16231,7 +16242,7 @@
       <c r="N280" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O280" s="5" t="s">
+      <c r="O280" t="s">
         <v>30</v>
       </c>
       <c r="P280" s="3">
@@ -16239,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>163</v>
       </c>
@@ -16264,7 +16275,7 @@
       <c r="H281" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I281" s="5" t="s">
+      <c r="I281" t="s">
         <v>29</v>
       </c>
       <c r="J281" s="3">
@@ -16282,7 +16293,7 @@
       <c r="N281" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O281" s="5" t="s">
+      <c r="O281" t="s">
         <v>30</v>
       </c>
       <c r="P281" s="3">
@@ -16290,7 +16301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>169</v>
       </c>
@@ -16315,7 +16326,7 @@
       <c r="H282" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I282" s="5" t="s">
+      <c r="I282" t="s">
         <v>29</v>
       </c>
       <c r="J282" s="3">
@@ -16333,7 +16344,7 @@
       <c r="N282" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O282" s="5" t="s">
+      <c r="O282" t="s">
         <v>30</v>
       </c>
       <c r="P282" s="3">
@@ -16341,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>172</v>
       </c>
@@ -16366,7 +16377,7 @@
       <c r="H283" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I283" s="5" t="s">
+      <c r="I283" t="s">
         <v>29</v>
       </c>
       <c r="J283" s="3">
@@ -16384,7 +16395,7 @@
       <c r="N283" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O283" s="5" t="s">
+      <c r="O283" t="s">
         <v>30</v>
       </c>
       <c r="P283" s="3">
@@ -16392,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>193</v>
       </c>
@@ -16417,7 +16428,7 @@
       <c r="H284" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I284" s="5" t="s">
+      <c r="I284" t="s">
         <v>29</v>
       </c>
       <c r="J284" s="3">
@@ -16435,7 +16446,7 @@
       <c r="N284" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O284" s="5" t="s">
+      <c r="O284" t="s">
         <v>30</v>
       </c>
       <c r="P284" s="3">
@@ -16443,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>199</v>
       </c>
@@ -16468,7 +16479,7 @@
       <c r="H285" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I285" s="5" t="s">
+      <c r="I285" t="s">
         <v>29</v>
       </c>
       <c r="J285" s="3">
@@ -16486,7 +16497,7 @@
       <c r="N285" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O285" s="5" t="s">
+      <c r="O285" t="s">
         <v>30</v>
       </c>
       <c r="P285" s="3">
@@ -16494,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>202</v>
       </c>
@@ -16519,7 +16530,7 @@
       <c r="H286" s="3">
         <v>0</v>
       </c>
-      <c r="I286" s="5" t="s">
+      <c r="I286" t="s">
         <v>26</v>
       </c>
       <c r="J286" s="3">
@@ -16537,7 +16548,7 @@
       <c r="N286" s="3">
         <v>0</v>
       </c>
-      <c r="O286" s="5" t="s">
+      <c r="O286" t="s">
         <v>27</v>
       </c>
       <c r="P286" s="3">
@@ -16545,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>205</v>
       </c>
@@ -16570,7 +16581,7 @@
       <c r="H287" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I287" s="5" t="s">
+      <c r="I287" t="s">
         <v>29</v>
       </c>
       <c r="J287" s="3">
@@ -16588,7 +16599,7 @@
       <c r="N287" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O287" s="5" t="s">
+      <c r="O287" t="s">
         <v>30</v>
       </c>
       <c r="P287" s="3">
@@ -16596,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>208</v>
       </c>
@@ -16621,7 +16632,7 @@
       <c r="H288" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I288" s="5" t="s">
+      <c r="I288" t="s">
         <v>29</v>
       </c>
       <c r="J288" s="3">
@@ -16639,7 +16650,7 @@
       <c r="N288" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O288" s="5" t="s">
+      <c r="O288" t="s">
         <v>30</v>
       </c>
       <c r="P288" s="3">
@@ -16647,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>214</v>
       </c>
@@ -16672,7 +16683,7 @@
       <c r="H289" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I289" s="5" t="s">
+      <c r="I289" t="s">
         <v>29</v>
       </c>
       <c r="J289" s="3">
@@ -16690,7 +16701,7 @@
       <c r="N289" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O289" s="5" t="s">
+      <c r="O289" t="s">
         <v>30</v>
       </c>
       <c r="P289" s="3">
@@ -16698,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>217</v>
       </c>
@@ -16723,7 +16734,7 @@
       <c r="H290" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I290" s="5" t="s">
+      <c r="I290" t="s">
         <v>29</v>
       </c>
       <c r="J290" s="3">
@@ -16741,7 +16752,7 @@
       <c r="N290" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O290" s="5" t="s">
+      <c r="O290" t="s">
         <v>30</v>
       </c>
       <c r="P290" s="3">
@@ -16749,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>220</v>
       </c>
@@ -16774,7 +16785,7 @@
       <c r="H291" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I291" s="5" t="s">
+      <c r="I291" t="s">
         <v>29</v>
       </c>
       <c r="J291" s="3">
@@ -16792,7 +16803,7 @@
       <c r="N291" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O291" s="5" t="s">
+      <c r="O291" t="s">
         <v>30</v>
       </c>
       <c r="P291" s="3">
@@ -16800,7 +16811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>232</v>
       </c>
@@ -16825,7 +16836,7 @@
       <c r="H292" s="3">
         <v>0</v>
       </c>
-      <c r="I292" s="5" t="s">
+      <c r="I292" t="s">
         <v>26</v>
       </c>
       <c r="J292" s="3">
@@ -16843,7 +16854,7 @@
       <c r="N292" s="3">
         <v>0</v>
       </c>
-      <c r="O292" s="5" t="s">
+      <c r="O292" t="s">
         <v>27</v>
       </c>
       <c r="P292" s="3">
@@ -16851,7 +16862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>241</v>
       </c>
@@ -16876,7 +16887,7 @@
       <c r="H293" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I293" s="5" t="s">
+      <c r="I293" t="s">
         <v>29</v>
       </c>
       <c r="J293" s="3">
@@ -16894,7 +16905,7 @@
       <c r="N293" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O293" s="5" t="s">
+      <c r="O293" t="s">
         <v>30</v>
       </c>
       <c r="P293" s="3">
@@ -16902,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>256</v>
       </c>
@@ -16927,7 +16938,7 @@
       <c r="H294" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I294" s="5" t="s">
+      <c r="I294" t="s">
         <v>29</v>
       </c>
       <c r="J294" s="3">
@@ -16945,7 +16956,7 @@
       <c r="N294" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O294" s="5" t="s">
+      <c r="O294" t="s">
         <v>30</v>
       </c>
       <c r="P294" s="3">
@@ -16953,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>262</v>
       </c>
@@ -16978,7 +16989,7 @@
       <c r="H295" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I295" s="5" t="s">
+      <c r="I295" t="s">
         <v>29</v>
       </c>
       <c r="J295" s="3">
@@ -16996,7 +17007,7 @@
       <c r="N295" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O295" s="5" t="s">
+      <c r="O295" t="s">
         <v>30</v>
       </c>
       <c r="P295" s="3">
@@ -17004,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>271</v>
       </c>
@@ -17029,7 +17040,7 @@
       <c r="H296" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I296" s="5" t="s">
+      <c r="I296" t="s">
         <v>29</v>
       </c>
       <c r="J296" s="3">
@@ -17047,7 +17058,7 @@
       <c r="N296" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O296" s="5" t="s">
+      <c r="O296" t="s">
         <v>30</v>
       </c>
       <c r="P296" s="3">
@@ -17055,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>274</v>
       </c>
@@ -17080,7 +17091,7 @@
       <c r="H297" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I297" s="5" t="s">
+      <c r="I297" t="s">
         <v>29</v>
       </c>
       <c r="J297" s="3">
@@ -17098,7 +17109,7 @@
       <c r="N297" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O297" s="5" t="s">
+      <c r="O297" t="s">
         <v>30</v>
       </c>
       <c r="P297" s="3">
@@ -17106,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>280</v>
       </c>
@@ -17131,7 +17142,7 @@
       <c r="H298" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I298" s="5" t="s">
+      <c r="I298" t="s">
         <v>29</v>
       </c>
       <c r="J298" s="3">
@@ -17149,7 +17160,7 @@
       <c r="N298" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O298" s="5" t="s">
+      <c r="O298" t="s">
         <v>30</v>
       </c>
       <c r="P298" s="3">
@@ -17182,7 +17193,7 @@
       <c r="H299" s="3">
         <v>0</v>
       </c>
-      <c r="I299" s="5" t="s">
+      <c r="I299" t="s">
         <v>26</v>
       </c>
       <c r="J299" s="3">
@@ -17200,7 +17211,7 @@
       <c r="N299" s="3">
         <v>0</v>
       </c>
-      <c r="O299" s="5" t="s">
+      <c r="O299" t="s">
         <v>27</v>
       </c>
       <c r="P299" s="3">
@@ -17208,7 +17219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>286</v>
       </c>
@@ -17233,7 +17244,7 @@
       <c r="H300" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I300" s="5" t="s">
+      <c r="I300" t="s">
         <v>29</v>
       </c>
       <c r="J300" s="3">
@@ -17251,15 +17262,15 @@
       <c r="N300" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O300" s="5" t="s">
+      <c r="O300" t="s">
         <v>30</v>
       </c>
       <c r="P300" s="3">
-        <f>ABS(D300-J300)</f>
+        <f t="shared" ref="P258:P301" si="0">ABS(D300-J300)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>298</v>
       </c>
@@ -17284,7 +17295,7 @@
       <c r="H301" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I301" s="5" t="s">
+      <c r="I301" t="s">
         <v>29</v>
       </c>
       <c r="J301" s="3">
@@ -17302,17 +17313,23 @@
       <c r="N301" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O301" s="5" t="s">
+      <c r="O301" t="s">
         <v>30</v>
       </c>
       <c r="P301" s="3">
-        <f>ABS(D301-J301)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P301" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P301">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Lighgbm"/>
+        <filter val="XGBoost"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P299">
       <sortCondition descending="1" ref="J1:J301"/>
     </sortState>
   </autoFilter>
